--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.1.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.1.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.57817109144543</v>
+        <v>86.19503628924126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3706567428186342</v>
+        <v>0.3998116984053922</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8657817109144542</v>
+        <v>0.8619503628924126</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8586409137249145</v>
+        <v>0.8507742611219467</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.68141592920354</v>
+        <v>90.88495575221239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2465582966457684</v>
+        <v>0.2555306063217965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9168141592920354</v>
+        <v>0.9088495575221238</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9108221933203783</v>
+        <v>0.9042360885525028</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.87610619469027</v>
+        <v>85.69338835111031</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3509637110711386</v>
+        <v>0.4657682580805461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8787610619469026</v>
+        <v>0.8569338835111029</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8620385170434149</v>
+        <v>0.8403916274462817</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89.14488879661589</v>
+        <v>88.76642531509788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2424070995805475</v>
+        <v>0.2528800225971887</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8914488879661588</v>
+        <v>0.8876642531509787</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8900936497262253</v>
+        <v>0.8893908925248855</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.35988200589971</v>
+        <v>90.71021375617435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232056088753355</v>
+        <v>0.2908403042703867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9235988200589971</v>
+        <v>0.9071021375617436</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9152186583691881</v>
+        <v>0.9065386653837632</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88.49592124499347</v>
+        <v>84.66595731796988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3085785982955713</v>
+        <v>0.4092582286025087</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8849592124499347</v>
+        <v>0.8466595731796988</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8845025858295775</v>
+        <v>0.835542535295251</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.02359882005899</v>
+        <v>84.75151169127761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2880257768149855</v>
+        <v>0.3616786019609814</v>
       </c>
       <c r="D8" t="n">
-        <v>0.88023598820059</v>
+        <v>0.8475151169127761</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8630534312199287</v>
+        <v>0.8436551441824124</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.21828908554572</v>
+        <v>92.30659434770197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1334040008417408</v>
+        <v>0.1738246642961409</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9421828908554571</v>
+        <v>0.9230659434770198</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9397535997444703</v>
+        <v>0.922357345684126</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.99165217692195</v>
+        <v>96.22418879056048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1359900391111864</v>
+        <v>0.1136879169633573</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9499165217692195</v>
+        <v>0.9622418879056047</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9482889140280927</v>
+        <v>0.962332567689673</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.39233038348083</v>
+        <v>92.30105796762948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1525180080405183</v>
+        <v>0.1659734367949568</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9339233038348083</v>
+        <v>0.9230105796762947</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9336208541872966</v>
+        <v>0.9179603466990773</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.70223790863243</v>
+        <v>86.52055813631605</v>
       </c>
       <c r="C12" t="n">
-        <v>0.295598415817949</v>
+        <v>0.350519643277706</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8870223790863243</v>
+        <v>0.8652055813631605</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8878085615496817</v>
+        <v>0.8568401463476517</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.71559442555731</v>
+        <v>92.15564148478794</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1999947172909742</v>
+        <v>0.2035145480263358</v>
       </c>
       <c r="D13" t="n">
-        <v>0.927155944255573</v>
+        <v>0.9215564148478794</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9230971833298399</v>
+        <v>0.919941042645165</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.44542772861357</v>
+        <v>88.34842861962474</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2202925878396248</v>
+        <v>0.2912621363209231</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9144542772861357</v>
+        <v>0.8834842861962473</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9135687943168029</v>
+        <v>0.8739273950797835</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.37027136912948</v>
+        <v>79.16201697246515</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4540947021877704</v>
+        <v>0.4692445129699384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8337027136912949</v>
+        <v>0.7916201697246515</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8229596436195031</v>
+        <v>0.7826251731545102</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.41297070043859</v>
+        <v>88.56010865145893</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2716507737039743</v>
+        <v>0.2864774194507239</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8941297070043859</v>
+        <v>0.8856010865145892</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8911593320408843</v>
+        <v>0.8833338454402166</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.65486725663717</v>
+        <v>93.98264690871028</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1806568547200489</v>
+        <v>0.1595693617350965</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9265486725663716</v>
+        <v>0.9398264690871029</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9251854990240542</v>
+        <v>0.9397869706524231</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.44872360487548</v>
+        <v>89.47767714253584</v>
       </c>
       <c r="C18" t="n">
-        <v>0.222686027715857</v>
+        <v>0.2864926372577997</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9244872360487548</v>
+        <v>0.8947767714253583</v>
       </c>
       <c r="E18" t="n">
-        <v>0.918654953611129</v>
+        <v>0.8919067875945725</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.42772861356931</v>
+        <v>94.63161446033271</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1303115277981002</v>
+        <v>0.1598525970441794</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9542772861356932</v>
+        <v>0.946316144603327</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9523267623056035</v>
+        <v>0.9446905826952026</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.82613171394216</v>
+        <v>87.82160745335167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2426223250906333</v>
+        <v>0.3089353099911629</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9082613171394216</v>
+        <v>0.8782160745335167</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9038978594369522</v>
+        <v>0.8767534391781929</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.13616034740785</v>
+        <v>77.38726113547696</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4983864803953718</v>
+        <v>0.543301161370861</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8013616034740785</v>
+        <v>0.7738726113547696</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7900583824695477</v>
+        <v>0.7581320352860185</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.44506440367131</v>
+        <v>85.73638180261075</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2887040063583602</v>
+        <v>0.3793009858500833</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8944506440367131</v>
+        <v>0.8573638180261074</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8841733642559279</v>
+        <v>0.8447790289337884</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.47804911807195</v>
+        <v>86.58768674469502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.199452082196755</v>
+        <v>0.3422638028743677</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9247804911807196</v>
+        <v>0.8658768674469502</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9221598194994659</v>
+        <v>0.8630800428903885</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.58997050147494</v>
+        <v>89.08571873459114</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2426033761640914</v>
+        <v>0.2730941150424769</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9058997050147493</v>
+        <v>0.8908571873459113</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9039863962915188</v>
+        <v>0.8877711128511603</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.76106194690266</v>
+        <v>84.93057898424726</v>
       </c>
       <c r="C25" t="n">
-        <v>0.287174775552315</v>
+        <v>0.3893205043432924</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8876106194690265</v>
+        <v>0.8493057898424727</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8813704670965349</v>
+        <v>0.8446747189332487</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.20353982300885</v>
+        <v>85.22193098556215</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2898512122146106</v>
+        <v>0.3555091948073823</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8920353982300885</v>
+        <v>0.8522193098556216</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8808929770363225</v>
+        <v>0.8395028030691055</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.97987006808017</v>
+        <v>77.43933771053382</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6723682615653768</v>
+        <v>0.7287342043879713</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8297987006808019</v>
+        <v>0.7743933771053383</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8248350562403134</v>
+        <v>0.7600000487088362</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.33038348082596</v>
+        <v>78.85526691407365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6838698199911353</v>
+        <v>0.7845206911176017</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8233038348082596</v>
+        <v>0.7885526691407365</v>
       </c>
       <c r="E28" t="n">
-        <v>0.806899620500533</v>
+        <v>0.7722378217717847</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.20058997050147</v>
+        <v>97.05014749262537</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06069369536794511</v>
+        <v>0.07505470901407232</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9820058997050147</v>
+        <v>0.9705014749262537</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9820999255019475</v>
+        <v>0.9705177772746527</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.26253687315634</v>
+        <v>99.08571873459114</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01914775511403377</v>
+        <v>0.02773296911603514</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9926253687315635</v>
+        <v>0.9908571873459113</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9926401178746908</v>
+        <v>0.9908618243210128</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.30973451327434</v>
+        <v>98.49557522123894</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1112193580331458</v>
+        <v>0.05925192441178145</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9530973451327434</v>
+        <v>0.9849557522123893</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9495875243539669</v>
+        <v>0.9849119245544726</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.4154390032209</v>
+        <v>88.43450779562684</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267751237236384</v>
+        <v>0.3121068722234349</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9041543900322091</v>
+        <v>0.8843450779562684</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8987798519182902</v>
+        <v>0.8786484665320703</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.377189854552539</v>
+        <v>5.697035515958493</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1492184552371826</v>
+        <v>0.1715000827074824</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04377189854552538</v>
+        <v>0.05697035515958493</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04707174804874187</v>
+        <v>0.06149859449342659</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.57001358143236</v>
+        <v>84.15981107103002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4977190928393004</v>
+        <v>0.412365656386343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8357001358143237</v>
+        <v>0.8415981107103002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8238127196601477</v>
+        <v>0.8348897384302078</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.18289085545723</v>
+        <v>85.846071332797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2152775194400116</v>
+        <v>0.3787731488817371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9218289085545722</v>
+        <v>0.85846071332797</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9196182590615415</v>
+        <v>0.85713658400021</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.72566371681417</v>
+        <v>83.89605446413897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.402493639899573</v>
+        <v>0.4521922358719166</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8672566371681416</v>
+        <v>0.8389605446413896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8516113783053022</v>
+        <v>0.8277971875553701</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.43657817109144</v>
+        <v>86.96770733310842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2744903618397075</v>
+        <v>0.3160721015650779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8843657817109145</v>
+        <v>0.8696770733310842</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8835456842087916</v>
+        <v>0.8659543676859693</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.27641242571302</v>
+        <v>91.53530739885294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1883309248757238</v>
+        <v>0.2619297416570286</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9327641242571303</v>
+        <v>0.9153530739885293</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9321736445345529</v>
+        <v>0.9155450681355569</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88.20162804176508</v>
+        <v>85.3763440860215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3119286870894332</v>
+        <v>0.3607889494858682</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8820162804176507</v>
+        <v>0.8537634408602151</v>
       </c>
       <c r="E7" t="n">
-        <v>0.87714777907446</v>
+        <v>0.8505740342582451</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.9382261092224</v>
+        <v>85.75722973382122</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2518439405119352</v>
+        <v>0.3446388059671638</v>
       </c>
       <c r="D8" t="n">
-        <v>0.889382261092224</v>
+        <v>0.8575722973382123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8877252623980644</v>
+        <v>0.8558217054019266</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.91740412979351</v>
+        <v>88.59946885353679</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1825482824530961</v>
+        <v>0.2784311559653361</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9191740412979351</v>
+        <v>0.8859946885353679</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9153169551511006</v>
+        <v>0.8813181407507372</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.60766961651917</v>
+        <v>93.83636536648241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09072013656255914</v>
+        <v>0.1598019382916367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9660766961651918</v>
+        <v>0.938363653664824</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9658358756714073</v>
+        <v>0.9377782007288354</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.6019429233817</v>
+        <v>92.27553871573284</v>
       </c>
       <c r="C11" t="n">
-        <v>0.113039234527389</v>
+        <v>0.1788998632986477</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9460194292338169</v>
+        <v>0.9227553871573283</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9459994609284686</v>
+        <v>0.9227524225141277</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.46919956054982</v>
+        <v>87.3754963278229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2711791002972556</v>
+        <v>0.2968922750636315</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8946919956054984</v>
+        <v>0.873754963278229</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8959436723223592</v>
+        <v>0.8728673925383686</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.03557124196576</v>
+        <v>88.38519364354363</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221220481286097</v>
+        <v>0.2943511439875389</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9203557124196576</v>
+        <v>0.8838519364354364</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9161262108557129</v>
+        <v>0.8792516657410644</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.73468628621356</v>
+        <v>87.84660766961652</v>
       </c>
       <c r="C14" t="n">
-        <v>0.262448287937635</v>
+        <v>0.2953725171362748</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8973468628621355</v>
+        <v>0.8784660766961652</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8956124985585238</v>
+        <v>0.870959387143633</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.23160234950129</v>
+        <v>78.70915838372305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4094444822520018</v>
+        <v>0.464382947018991</v>
       </c>
       <c r="D15" t="n">
-        <v>0.832316023495013</v>
+        <v>0.7870915838372304</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8294030699198214</v>
+        <v>0.7696695295217865</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.54536803951592</v>
+        <v>80.19031306499191</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3875409885581272</v>
+        <v>0.5171511185045043</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8454536803951591</v>
+        <v>0.801903130649919</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8400682215730073</v>
+        <v>0.7942215190881966</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.71386430678466</v>
+        <v>91.12146298843416</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1842598673208461</v>
+        <v>0.2372579777225231</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9271386430678467</v>
+        <v>0.9112146298843415</v>
       </c>
       <c r="E17" t="n">
-        <v>0.925815398469885</v>
+        <v>0.9103557489084334</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>88.12610835733872</v>
+        <v>89.56478862273896</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2939960964350547</v>
+        <v>0.2680111102487729</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8812610835733873</v>
+        <v>0.8956478862273896</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8786649866236855</v>
+        <v>0.892564072249084</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.25108348688137</v>
+        <v>93.45219249301465</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1374956143331171</v>
+        <v>0.1624458624205241</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9525108348688137</v>
+        <v>0.9345219249301465</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9526078972395823</v>
+        <v>0.9325219186807823</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.18011401482713</v>
+        <v>86.6095727471691</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2574827509127014</v>
+        <v>0.3796306737232953</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9118011401482711</v>
+        <v>0.8660957274716911</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9092012915820424</v>
+        <v>0.8540499897034317</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79.27032240763329</v>
+        <v>77.03725810776909</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5384791684812323</v>
+        <v>0.6584798761953909</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7927032240763328</v>
+        <v>0.770372581077691</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7750395170305536</v>
+        <v>0.7513562786857196</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.00258652756511</v>
+        <v>86.02998295833009</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3077260484453291</v>
+        <v>0.3807523586709674</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8900258652756513</v>
+        <v>0.8602998295833009</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8795346992380244</v>
+        <v>0.8468403191880686</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.85909912715508</v>
+        <v>87.22765767869964</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2141126965851678</v>
+        <v>0.3332696960307658</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9185909912715507</v>
+        <v>0.8722765767869964</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9162375353003188</v>
+        <v>0.8687240908433095</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.47492625368731</v>
+        <v>89.08589174646839</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1951587380938084</v>
+        <v>0.2708238852295229</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9147492625368731</v>
+        <v>0.890858917464684</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9134444860639978</v>
+        <v>0.8888781332797896</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.0796460176991</v>
+        <v>87.87870137284924</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3493632795366769</v>
+        <v>0.3203146643160532</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8707964601769911</v>
+        <v>0.8787870137284924</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8660569751018524</v>
+        <v>0.8744797540802107</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.23321135995987</v>
+        <v>83.28125675827646</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2567063731866559</v>
+        <v>0.385358963663748</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8923321135995985</v>
+        <v>0.8328125675827647</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8890401723814572</v>
+        <v>0.8250051041801421</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.23650723622177</v>
+        <v>72.29154231437988</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8124612260022028</v>
+        <v>1.162346483155397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8023650723622178</v>
+        <v>0.7229154231437989</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7981405814493645</v>
+        <v>0.7056587144923387</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.56949454580057</v>
+        <v>78.20941357624201</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6269041157870864</v>
+        <v>0.7059395814527912</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8356949454580057</v>
+        <v>0.78209413576242</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8226568273350837</v>
+        <v>0.7660525864250366</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.70206489675516</v>
+        <v>96.54867256637168</v>
       </c>
       <c r="C29" t="n">
-        <v>0.039305917351597</v>
+        <v>0.0883847022712871</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9870206489675516</v>
+        <v>0.9654867256637167</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9870514590777193</v>
+        <v>0.9656493549772673</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.92920353982302</v>
+        <v>91.59395842524589</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08941590535312874</v>
+        <v>0.2250148512294496</v>
       </c>
       <c r="D30" t="n">
-        <v>0.95929203539823</v>
+        <v>0.9159395842524589</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9581238540984695</v>
+        <v>0.9116687431938729</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.34513274336283</v>
+        <v>97.22852273808597</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06979711391299037</v>
+        <v>0.08229731175839941</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9734513274336283</v>
+        <v>0.9722852273808597</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9731770502608048</v>
+        <v>0.9721460488721949</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.81494072901437</v>
+        <v>86.93058475130985</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2817630024035813</v>
+        <v>0.3557457199056862</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8981494072901438</v>
+        <v>0.8693058475130984</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8941577807825368</v>
+        <v>0.8634162600417971</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.810202132767308</v>
+        <v>5.578880324266</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1672381261126616</v>
+        <v>0.2038235729384417</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04810202132767306</v>
+        <v>0.05578880324265998</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05145713614560909</v>
+        <v>0.06066426777449698</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.32205295893564</v>
+        <v>87.81814721580636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2729673963074068</v>
+        <v>0.3244003215649476</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8932205295893564</v>
+        <v>0.8781814721580637</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8922004687246945</v>
+        <v>0.8767154804188964</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.96598586492962</v>
+        <v>81.74543032379174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.466375584306661</v>
+        <v>0.5325383566630383</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8796598586492962</v>
+        <v>0.8174543032379173</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8625430697581944</v>
+        <v>0.7984580292192099</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.39128366162336</v>
+        <v>82.24967344008166</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5501644118262145</v>
+        <v>0.5344961040013004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8239128366162337</v>
+        <v>0.8224967344008165</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8066612241256562</v>
+        <v>0.8066789746703131</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.02237908632426</v>
+        <v>84.4355054974524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.315209864724117</v>
+        <v>0.3654368303560963</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8702237908632429</v>
+        <v>0.844355054974524</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8678236467659231</v>
+        <v>0.8398314382356254</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.49557522123894</v>
+        <v>85.72686614936114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3121053523073594</v>
+        <v>0.4179165062805016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8849557522123893</v>
+        <v>0.8572686614936116</v>
       </c>
       <c r="E6" t="n">
-        <v>0.884400978537737</v>
+        <v>0.8574881565407502</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.58510021712991</v>
+        <v>81.78357944272875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3229197401153215</v>
+        <v>0.4660690105209748</v>
       </c>
       <c r="D7" t="n">
-        <v>0.875851002171299</v>
+        <v>0.8178357944272875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8726437876693227</v>
+        <v>0.8166413323770951</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.89848528101454</v>
+        <v>83.78411577954827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4203872888615782</v>
+        <v>0.3985180584357295</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8489848528101455</v>
+        <v>0.8378411577954827</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8435987052490026</v>
+        <v>0.8254234167773156</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.89514615178332</v>
+        <v>90.29948355954636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.259021764641875</v>
+        <v>0.2217605557688633</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8889514615178331</v>
+        <v>0.9029948355954636</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8880526132697341</v>
+        <v>0.900987861155331</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.88877066410609</v>
+        <v>90.32569485895206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2633786432589356</v>
+        <v>0.3210129378712734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9188877066410608</v>
+        <v>0.9032569485895208</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9162496813531922</v>
+        <v>0.9000959841756687</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.74978157250496</v>
+        <v>90.62431335911211</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1331985119963065</v>
+        <v>0.2066998500648575</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9474978157250495</v>
+        <v>0.906243133591121</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9480081779814261</v>
+        <v>0.9057658453413993</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.90300089101116</v>
+        <v>85.19381655550653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3452029471227434</v>
+        <v>0.3926542551334327</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8690300089101116</v>
+        <v>0.8519381655550653</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8693705077467152</v>
+        <v>0.8514712759799371</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.47197640117994</v>
+        <v>88.97879739444113</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2493025891715661</v>
+        <v>0.3081337748483444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9047197640117994</v>
+        <v>0.8897879739444112</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9023355294667533</v>
+        <v>0.888592383307573</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.84973053400117</v>
+        <v>81.74283514563275</v>
       </c>
       <c r="C14" t="n">
-        <v>0.26891359493117</v>
+        <v>0.5196847898924413</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8884973053400117</v>
+        <v>0.8174283514563274</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8819571948080132</v>
+        <v>0.7977481407156685</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.70343169058556</v>
+        <v>76.35308263912319</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5660916632274166</v>
+        <v>0.6262744154781104</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7670343169058557</v>
+        <v>0.7635308263912318</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7517419932353129</v>
+        <v>0.7453201925377207</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.30816010519122</v>
+        <v>77.95361551570515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4849721368091802</v>
+        <v>0.5897692323972782</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8330816010519122</v>
+        <v>0.7795361551570515</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8207351743851028</v>
+        <v>0.7685663095273427</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.94117596172978</v>
+        <v>90.47336049619807</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2551517095164551</v>
+        <v>0.2384403891027129</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8994117596172977</v>
+        <v>0.9047336049619806</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8942235467546267</v>
+        <v>0.9034157424856624</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.91252519485462</v>
+        <v>83.67165805932578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3047566438882323</v>
+        <v>0.4070674284215532</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8791252519485463</v>
+        <v>0.8367165805932577</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8759150890794108</v>
+        <v>0.8297465604873281</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.51067050753035</v>
+        <v>87.37722644659556</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1621568181584735</v>
+        <v>0.3290722312234114</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9351067050753035</v>
+        <v>0.8737722644659556</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9351199448136137</v>
+        <v>0.8705472437684822</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>85.36976963468541</v>
+        <v>80.38062612998382</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3851807419482308</v>
+        <v>0.5653471774732073</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8536976963468541</v>
+        <v>0.8038062612998382</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8455874001140785</v>
+        <v>0.7973000105653518</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.49847317018313</v>
+        <v>71.37925068555957</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7754550936166197</v>
+        <v>0.8665563239715993</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7349847317018313</v>
+        <v>0.7137925068555957</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7186864261870169</v>
+        <v>0.6927022235962295</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.91130546111989</v>
+        <v>87.20784781875275</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4062773958857481</v>
+        <v>0.4184908490938445</v>
       </c>
       <c r="D22" t="n">
-        <v>0.869113054611199</v>
+        <v>0.8720784781875276</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8529922108745387</v>
+        <v>0.8556120639937905</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.15078850163063</v>
+        <v>85.63612141973547</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2315496926816801</v>
+        <v>0.3481892395143708</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9115078850163064</v>
+        <v>0.8563612141973547</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9086096176647018</v>
+        <v>0.84980802078497</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.38053097345133</v>
+        <v>86.37600671286084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2624236144957649</v>
+        <v>0.3541792902256323</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8938053097345133</v>
+        <v>0.8637600671286083</v>
       </c>
       <c r="E24" t="n">
-        <v>0.892631149286051</v>
+        <v>0.8625180075562359</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.69494545800569</v>
+        <v>82.93125373056861</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3917150869073036</v>
+        <v>0.4364769704639911</v>
       </c>
       <c r="D25" t="n">
-        <v>0.856949454580057</v>
+        <v>0.829312537305686</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8495965270270993</v>
+        <v>0.8257125733552808</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.94117596172978</v>
+        <v>85.25177553439043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2706119282408811</v>
+        <v>0.3831804807132964</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8994117596172977</v>
+        <v>0.8525177553439043</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8970145176494423</v>
+        <v>0.8437220087916506</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.03313177449631</v>
+        <v>75.79070753207208</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8067619891492844</v>
+        <v>0.9459214336015671</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8003313177449632</v>
+        <v>0.7579070753207208</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7933318671625627</v>
+        <v>0.7365088004124771</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.30105796762948</v>
+        <v>71.95209301118521</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7782719317552013</v>
+        <v>1.050983463662366</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8230105796762948</v>
+        <v>0.7195209301118521</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8087285283141284</v>
+        <v>0.6904931273619896</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.66666666666666</v>
+        <v>95.13274336283186</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08429733012647678</v>
+        <v>0.1263557563215727</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9666666666666666</v>
+        <v>0.9513274336283185</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9660648340564449</v>
+        <v>0.9517046246469505</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>92.24188790560473</v>
+        <v>91.09577072466024</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1617753832262073</v>
+        <v>0.2168824696644151</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9224188790560472</v>
+        <v>0.9109577072466024</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9186398909000566</v>
+        <v>0.9084216653328134</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.07669616519175</v>
+        <v>97.28803882386526</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0955397304837272</v>
+        <v>0.07753081603458062</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9607669616519174</v>
+        <v>0.9728803882386525</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9593700892590334</v>
+        <v>0.9726966771245614</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.66938872020231</v>
+        <v>84.6986479121792</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3534045526562712</v>
+        <v>0.4330013106255103</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8766938872020231</v>
+        <v>0.8469864791217917</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8708278130739863</v>
+        <v>0.8390231390414539</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.12447769530004</v>
+        <v>5.990719986582151</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1858562428266197</v>
+        <v>0.2173422778181758</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05124477695300038</v>
+        <v>0.05990719986582151</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05556163675649547</v>
+        <v>0.0665071345531744</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.30172406335694</v>
+        <v>78.60223704357304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5544582101516425</v>
+        <v>0.4788440636048715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7930172406335695</v>
+        <v>0.7860223704357304</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7755405782333661</v>
+        <v>0.7808623950584896</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.85870985043124</v>
+        <v>70.89213574511891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.58247360419482</v>
+        <v>0.7248707052941123</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7685870985043123</v>
+        <v>0.708921357451189</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7589685840612173</v>
+        <v>0.7057377008917634</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.99200685127035</v>
+        <v>72.14084896928173</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6262304041224221</v>
+        <v>0.7336297377866383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7599200685127034</v>
+        <v>0.7214084896928175</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7399499240206916</v>
+        <v>0.7015636657436346</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.9218332338515</v>
+        <v>76.84426335867957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.578983071198066</v>
+        <v>0.5564566902195415</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7392183323385151</v>
+        <v>0.7684426335867958</v>
       </c>
       <c r="E5" t="n">
-        <v>0.72257786224094</v>
+        <v>0.7677269220077705</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.18315037327312</v>
+        <v>69.36374882135658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6623235163589319</v>
+        <v>0.7289493521054585</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7218315037327312</v>
+        <v>0.6936374882135659</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7096939786213496</v>
+        <v>0.685611456471124</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.76880422841029</v>
+        <v>71.07189508559763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6602226521819829</v>
+        <v>0.8043215900659562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7376880422841028</v>
+        <v>0.7107189508559763</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7319845248140936</v>
+        <v>0.6956739184158869</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.39214007041583</v>
+        <v>76.40143945881884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4862368423123068</v>
+        <v>0.549261334760619</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8139214007041584</v>
+        <v>0.7640143945881885</v>
       </c>
       <c r="E8" t="n">
-        <v>0.80171965574872</v>
+        <v>0.7582554868833082</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.46086038806564</v>
+        <v>85.86579468680524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3769540053637077</v>
+        <v>0.387758084050923</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8546086038806564</v>
+        <v>0.8586579468680524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8538145834116422</v>
+        <v>0.856009639283022</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.2116540800526</v>
+        <v>83.69752333497695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3856406319379554</v>
+        <v>0.3980042488032874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8721165408005259</v>
+        <v>0.8369752333497695</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8673693459380066</v>
+        <v>0.8321511673056909</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.69492815681797</v>
+        <v>80.96696338203617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4670154411345721</v>
+        <v>0.463649274284641</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8369492815681797</v>
+        <v>0.8096696338203617</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8327444121868929</v>
+        <v>0.8082364266316837</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.70081921123885</v>
+        <v>75.40999489614963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6886494151316583</v>
+        <v>0.6042708623533447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7470081921123886</v>
+        <v>0.7540999489614962</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7320143788702715</v>
+        <v>0.7481638672672822</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.19032171558578</v>
+        <v>77.12177440981324</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4853188117345174</v>
+        <v>0.6430400225023429</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8119032171558578</v>
+        <v>0.7712177440981323</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8071310420233401</v>
+        <v>0.7697862148381655</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.12579693595966</v>
+        <v>78.1292225711295</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4914506127902618</v>
+        <v>0.5141822151757272</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8212579693595966</v>
+        <v>0.7812922257112951</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8078244839692041</v>
+        <v>0.7697799861581911</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72.23816815024352</v>
+        <v>66.46251265149353</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7543777522941431</v>
+        <v>0.9145226319630941</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7223816815024351</v>
+        <v>0.6646251265149352</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7222158898900679</v>
+        <v>0.6300240997704736</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.92182458325763</v>
+        <v>68.90777601882368</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8540161134364703</v>
+        <v>0.8315913488467535</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7292182458325764</v>
+        <v>0.689077760188237</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7191317309335429</v>
+        <v>0.6846626904153137</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.67202138426804</v>
+        <v>76.6805076168479</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7840505937114358</v>
+        <v>0.5936853807419539</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7567202138426803</v>
+        <v>0.766805076168479</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7308871481511955</v>
+        <v>0.7650077590319931</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.86786217873858</v>
+        <v>69.96574364830147</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5876576106917735</v>
+        <v>0.7283436426582436</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7486786217873858</v>
+        <v>0.6996574364830146</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7440916925871515</v>
+        <v>0.6852186854630599</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.33973477279214</v>
+        <v>77.88337269353541</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4974725432693958</v>
+        <v>0.6368365754683812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8333973477279215</v>
+        <v>0.7788337269353541</v>
       </c>
       <c r="E19" t="n">
-        <v>0.834748502254971</v>
+        <v>0.7706432733739433</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.48008200762982</v>
+        <v>70.40908658379398</v>
       </c>
       <c r="C20" t="n">
-        <v>0.56747386349986</v>
+        <v>0.7397922155757745</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7748008200762982</v>
+        <v>0.7040908658379397</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7626944607600401</v>
+        <v>0.6947005957390739</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>74.23645533265859</v>
+        <v>68.95215356534226</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8330950564394394</v>
+        <v>0.9655761002097278</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7423645533265859</v>
+        <v>0.6895215356534227</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7249295396297993</v>
+        <v>0.6732522224780846</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.51479684080311</v>
+        <v>79.78027491587298</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5881130401122695</v>
+        <v>0.6004512126867969</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8051479684080313</v>
+        <v>0.7978027491587298</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7924491045048221</v>
+        <v>0.785850710685532</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65.02599503455913</v>
+        <v>61.50589537971782</v>
       </c>
       <c r="C23" t="n">
-        <v>1.092290814748655</v>
+        <v>0.9971085886160532</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6502599503455913</v>
+        <v>0.6150589537971782</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6166042582511875</v>
+        <v>0.576710775633513</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.62010051990069</v>
+        <v>74.68187441067829</v>
       </c>
       <c r="C24" t="n">
-        <v>0.681274622802933</v>
+        <v>0.6822388429194689</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7362010051990069</v>
+        <v>0.746818744106783</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7287157614447244</v>
+        <v>0.7382997763536311</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.23787403005215</v>
+        <v>67.71693526760612</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9313203611100714</v>
+        <v>0.8597370008627573</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6823787403005216</v>
+        <v>0.6771693526760612</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6547705605235625</v>
+        <v>0.6611102038424896</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.33418109153193</v>
+        <v>78.88909073607904</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5751816054340452</v>
+        <v>0.5030967630484763</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8133418109153194</v>
+        <v>0.7888909073607903</v>
       </c>
       <c r="E26" t="n">
-        <v>0.798782328384209</v>
+        <v>0.7813885176735551</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.11708578793933</v>
+        <v>75.76068997136653</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9363320498101529</v>
+        <v>0.8043287689487139</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7511708578793934</v>
+        <v>0.7576068997136653</v>
       </c>
       <c r="E27" t="n">
-        <v>0.747268965941706</v>
+        <v>0.7517158216345399</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.60523014904973</v>
+        <v>70.11185217865207</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8094777385112442</v>
+        <v>0.8193723486736417</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7460523014904974</v>
+        <v>0.7011185217865206</v>
       </c>
       <c r="E28" t="n">
-        <v>0.725972410793871</v>
+        <v>0.6762193902755202</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.35693215339234</v>
+        <v>89.43987404735336</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2167617904177556</v>
+        <v>0.2844574422730753</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9135693215339232</v>
+        <v>0.8943987404735335</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9137707997846066</v>
+        <v>0.8944777441874375</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.48619797749116</v>
+        <v>81.40719210373793</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4188903748879966</v>
+        <v>0.4373081862839172</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8448619797749115</v>
+        <v>0.8140719210373792</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8337979324961392</v>
+        <v>0.7893793929952546</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.96477478178878</v>
+        <v>97.58215901521639</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09214319565071491</v>
+        <v>0.07900831591008076</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9796477478178878</v>
+        <v>0.975821590152164</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9794024285342673</v>
+        <v>0.9756130038834596</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.36073553116087</v>
+        <v>75.75482775225852</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6088628781813733</v>
+        <v>0.6354897848898126</v>
       </c>
       <c r="D32" t="n">
-        <v>0.783607355311609</v>
+        <v>0.7575482775225854</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7723855623001867</v>
+        <v>0.7471277836797631</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.709089649167676</v>
+        <v>7.253993179603272</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2089776103100854</v>
+        <v>0.2032350479119913</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06709089649167675</v>
+        <v>0.07253993179603271</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07260742045736972</v>
+        <v>0.0787874719188045</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.18246697635792</v>
+        <v>69.82205728423256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6679207585752011</v>
+        <v>0.6979387141143282</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7318246697635793</v>
+        <v>0.6982205728423256</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7092274197739845</v>
+        <v>0.6920717488499409</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.42324760594815</v>
+        <v>64.22417148937275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8599252353732785</v>
+        <v>0.9848576036592325</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6742324760594814</v>
+        <v>0.6422417148937274</v>
       </c>
       <c r="E3" t="n">
-        <v>0.658956335277382</v>
+        <v>0.6211556184385579</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.64405401430808</v>
+        <v>73.59146705421327</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7843692561921974</v>
+        <v>0.7394894354666273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7264405401430809</v>
+        <v>0.7359146705421328</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7056345821302707</v>
+        <v>0.7120018248986596</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.40767653699427</v>
+        <v>64.91102864211629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7361502564201752</v>
+        <v>0.8779817855296036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6740767653699427</v>
+        <v>0.6491102864211629</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6546311090087595</v>
+        <v>0.6283111163838951</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.94695455843043</v>
+        <v>67.14686113201671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7372317671775818</v>
+        <v>0.7393870845437049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6794695455843043</v>
+        <v>0.6714686113201671</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6733842151633689</v>
+        <v>0.6597601068356992</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.14718120398966</v>
+        <v>61.82752445955415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9127145901322364</v>
+        <v>0.9647245218356451</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6414718120398966</v>
+        <v>0.6182752445955415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6377406121568389</v>
+        <v>0.6071357828888374</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.15387676363983</v>
+        <v>74.26681891711867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5405816181873282</v>
+        <v>0.7684078068317224</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7815387676363983</v>
+        <v>0.7426681891711866</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7778987064837842</v>
+        <v>0.7122405663360043</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.10182614036454</v>
+        <v>81.57484061280806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4663882906199433</v>
+        <v>0.4406371906710168</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8110182614036454</v>
+        <v>0.8157484061280806</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8129386475569558</v>
+        <v>0.8142456088255272</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.73397693751676</v>
+        <v>81.52034187146947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6689749596485248</v>
+        <v>0.4553662527798831</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7773397693751676</v>
+        <v>0.8152034187146947</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7712105914209215</v>
+        <v>0.8143382752125227</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.41896556198583</v>
+        <v>69.79446188980873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7246068850159645</v>
+        <v>0.78138724428912</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7241896556198583</v>
+        <v>0.6979446188980873</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7132615875478177</v>
+        <v>0.6876922704044806</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.46656112942154</v>
+        <v>71.93089905622021</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6118513591587543</v>
+        <v>0.7776427739610274</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7446656112942154</v>
+        <v>0.7193089905622021</v>
       </c>
       <c r="E12" t="n">
-        <v>0.73199168884691</v>
+        <v>0.7167843934106652</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.39452763432209</v>
+        <v>70.75156359484079</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5722838111842672</v>
+        <v>0.834101145962874</v>
       </c>
       <c r="D13" t="n">
-        <v>0.773945276343221</v>
+        <v>0.7075156359484078</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7678293702667942</v>
+        <v>0.6967511352001367</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70.62526492443706</v>
+        <v>69.75665879462625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7004021695543392</v>
+        <v>0.9550865344703198</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7062526492443706</v>
+        <v>0.6975665879462625</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6938746338570915</v>
+        <v>0.6676124746861665</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.25496760352598</v>
+        <v>58.77325928424987</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9189804993569851</v>
+        <v>1.041652179757754</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6425496760352598</v>
+        <v>0.5877325928424987</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6234744094463383</v>
+        <v>0.5712394940302365</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.71704772532635</v>
+        <v>63.56015190442823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7528000875065725</v>
+        <v>1.060729434962074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7071704772532634</v>
+        <v>0.6356015190442824</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7053158844341649</v>
+        <v>0.6152867786721401</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>70.26020986340713</v>
+        <v>68.6569087967889</v>
       </c>
       <c r="C17" t="n">
-        <v>0.821836572388808</v>
+        <v>0.7810107241074244</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7026020986340712</v>
+        <v>0.6865690879678891</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6862813885283749</v>
+        <v>0.6767689477993178</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>66.93708423083244</v>
+        <v>62.35901694651339</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8168675589064757</v>
+        <v>0.8486959294726452</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6693708423083244</v>
+        <v>0.6235901694651338</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6642657607690368</v>
+        <v>0.5903117017399443</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.51219301205029</v>
+        <v>72.61645861988426</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5206839207559824</v>
+        <v>0.7295992376903693</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7951219301205027</v>
+        <v>0.7261645861988425</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7929212804872724</v>
+        <v>0.7245531073054634</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70.97371084524953</v>
+        <v>64.63619927508023</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8212166647116342</v>
+        <v>0.9291907978554568</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7097371084524953</v>
+        <v>0.6463619927508024</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6985852819353113</v>
+        <v>0.6319000380218952</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.36464848311837</v>
+        <v>66.72298203271654</v>
       </c>
       <c r="C21" t="n">
-        <v>1.307780511719951</v>
+        <v>0.9826426803444823</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6336464848311837</v>
+        <v>0.6672298203271654</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6043211955080137</v>
+        <v>0.6513609977039444</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.85343298817465</v>
+        <v>74.71085390012024</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7660602055490017</v>
+        <v>0.9212817086430732</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7685343298817464</v>
+        <v>0.7471085390012024</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7515692655565814</v>
+        <v>0.7139195497546408</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>62.92390072578483</v>
+        <v>60.63529961331845</v>
       </c>
       <c r="C23" t="n">
-        <v>1.047469934976349</v>
+        <v>0.9890482582151889</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6292390072578483</v>
+        <v>0.6063529961331845</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6092331896714076</v>
+        <v>0.5842205762015729</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69.87811313246655</v>
+        <v>65.81942750369812</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7551554883519809</v>
+        <v>0.8598093718290329</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6987811313246655</v>
+        <v>0.6581942750369812</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6924298823944817</v>
+        <v>0.6483024046430165</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.89185892611528</v>
+        <v>65.28170658915734</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8086966405312219</v>
+        <v>0.8779895412425202</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6889185892611527</v>
+        <v>0.6528170658915735</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6761965812038795</v>
+        <v>0.6261613662909271</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>76.23595359821452</v>
+        <v>70.52794574347529</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8586866208041707</v>
+        <v>0.7673148360103369</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7623595359821451</v>
+        <v>0.705279457434753</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7469283404026111</v>
+        <v>0.6880675486413906</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69.06201610740577</v>
+        <v>64.63100891876226</v>
       </c>
       <c r="C27" t="n">
-        <v>1.075493312720209</v>
+        <v>1.164913303971601</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6906201610740578</v>
+        <v>0.6463100891876227</v>
       </c>
       <c r="E27" t="n">
-        <v>0.664273768005084</v>
+        <v>0.6304322159600212</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.8089083815604</v>
+        <v>60.8871184006782</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8197218777611852</v>
+        <v>1.04129946877559</v>
       </c>
       <c r="D28" t="n">
-        <v>0.698089083815604</v>
+        <v>0.6088711840067821</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6731310317208458</v>
+        <v>0.5796588639895793</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.7213211186948</v>
+        <v>76.82324241559184</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4062834040882687</v>
+        <v>0.6117632213359078</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8472132111869479</v>
+        <v>0.7682324241559183</v>
       </c>
       <c r="E29" t="n">
-        <v>0.845031830037847</v>
+        <v>0.7632489402677411</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.0167908026886</v>
+        <v>74.48524641216621</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4533283489736884</v>
+        <v>0.6491120165820272</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8101679080268861</v>
+        <v>0.7448524641216621</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8047996682455285</v>
+        <v>0.7228148449617601</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.22867844877551</v>
+        <v>93.61075787852836</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1240095764320965</v>
+        <v>0.2389381365991236</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9522867844877551</v>
+        <v>0.9361075787852837</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9516142544611629</v>
+        <v>0.9357454416963833</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>72.84291386603691</v>
+        <v>69.52854263445187</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7352824060924791</v>
+        <v>0.8170666313836572</v>
       </c>
       <c r="D32" t="n">
-        <v>0.728429138660369</v>
+        <v>0.6952854263445187</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7166317504099607</v>
+        <v>0.6794697913350356</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.947406125040668</v>
+        <v>7.279470866525018</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2194532581171731</v>
+        <v>0.1967266463030779</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06947406125040667</v>
+        <v>0.07279470866525019</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07440155658846398</v>
+        <v>0.07792007287991629</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.24833259803286</v>
+        <v>55.98543239993425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9125592820346355</v>
+        <v>0.9751740177472433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5724833259803286</v>
+        <v>0.5598543239993425</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5555077112745049</v>
+        <v>0.5348382404226676</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.366949541086</v>
+        <v>55.234214828848</v>
       </c>
       <c r="C3" t="n">
-        <v>1.016668277482192</v>
+        <v>1.056700554490089</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5936694954108599</v>
+        <v>0.5523421482884799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5855602040304636</v>
+        <v>0.5313662396482675</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.51886261991886</v>
+        <v>67.76581112293358</v>
       </c>
       <c r="C4" t="n">
-        <v>1.022374306122462</v>
+        <v>0.8259379085153341</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6051886261991886</v>
+        <v>0.6776581112293358</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5832037681435331</v>
+        <v>0.6663938030645278</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.84452287649547</v>
+        <v>62.20841010735387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8761605630318323</v>
+        <v>0.8223943936328093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5684452287649547</v>
+        <v>0.6220841010735387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5399867990629905</v>
+        <v>0.6074150067459122</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.67136393913442</v>
+        <v>59.78831996816581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8121284872293473</v>
+        <v>0.8279984225829443</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5967136393913443</v>
+        <v>0.5978831996816582</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5856223982321811</v>
+        <v>0.5783212237330204</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.76481630463932</v>
+        <v>58.18597046687255</v>
       </c>
       <c r="C7" t="n">
-        <v>1.08846625238657</v>
+        <v>0.9724966396888096</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5276481630463932</v>
+        <v>0.5818597046687255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4971686313916477</v>
+        <v>0.5721798954551955</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.74277459147571</v>
+        <v>72.26394691995606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6677622587885708</v>
+        <v>0.70011140210554</v>
       </c>
       <c r="D8" t="n">
-        <v>0.747427745914757</v>
+        <v>0.7226394691995606</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7282495775514654</v>
+        <v>0.7048076540832084</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.78075934912931</v>
+        <v>75.5727125667177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6236186531061928</v>
+        <v>0.6526625209177535</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7578075934912932</v>
+        <v>0.7557271256671771</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7610256394939782</v>
+        <v>0.7531396110761114</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.03240512461181</v>
+        <v>73.9673353575723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5547272158320993</v>
+        <v>0.6266147355238597</v>
       </c>
       <c r="D10" t="n">
-        <v>0.760324051246118</v>
+        <v>0.7396733535757229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7611801816602879</v>
+        <v>0.7399626245872316</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.58828363567159</v>
+        <v>64.21223366984142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8224547813336054</v>
+        <v>0.7903052886327108</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6558828363567158</v>
+        <v>0.6421223366984143</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6513092058611222</v>
+        <v>0.6354819757910996</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.359103452452</v>
+        <v>61.2419657609495</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8558875968058904</v>
+        <v>0.909898430109024</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6235910345245201</v>
+        <v>0.6124196576094949</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6193165726245125</v>
+        <v>0.5927604792033044</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.0781408143669</v>
+        <v>65.79408126367875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.851932061711947</v>
+        <v>0.8425741973022619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6307814081436691</v>
+        <v>0.6579408126367875</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6231032240373774</v>
+        <v>0.6516462025726911</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67.14928329829843</v>
+        <v>61.49871538681131</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7267535164952278</v>
+        <v>0.8624864051739376</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6714928329829843</v>
+        <v>0.614987153868113</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6605156322632697</v>
+        <v>0.6003720254610595</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.35360167475498</v>
+        <v>57.93908251801486</v>
       </c>
       <c r="C15" t="n">
-        <v>1.01064017812411</v>
+        <v>0.9640253881613413</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5635360167475497</v>
+        <v>0.5793908251801486</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5291630445115191</v>
+        <v>0.5662771367883873</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.99066600922153</v>
+        <v>56.86865803337399</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9643206492066383</v>
+        <v>1.002809803684553</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6099066600922154</v>
+        <v>0.56868658033374</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5728265380706805</v>
+        <v>0.5435142973463485</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.97231809963754</v>
+        <v>55.58586146938988</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9370199732482434</v>
+        <v>0.9716074258089066</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5997231809963754</v>
+        <v>0.5558586146938987</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5912641830738206</v>
+        <v>0.5442914474847662</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.1895172103565</v>
+        <v>64.6488291421206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8968959510326385</v>
+        <v>0.8922019541263581</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5818951721035649</v>
+        <v>0.6464882914212061</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5627297074098446</v>
+        <v>0.6364752964248309</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.189422053824</v>
+        <v>69.19895500826132</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7514194925626119</v>
+        <v>0.7526555344462394</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6718942205382399</v>
+        <v>0.6919895500826132</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6695160946490757</v>
+        <v>0.6833020656329966</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.74962586181541</v>
+        <v>58.21278730784868</v>
       </c>
       <c r="C20" t="n">
-        <v>1.060377938052019</v>
+        <v>1.116196588675181</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5674962586181541</v>
+        <v>0.5821278730784869</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5470512621220098</v>
+        <v>0.5429972903564948</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.39843770274829</v>
+        <v>64.97625411984532</v>
       </c>
       <c r="C21" t="n">
-        <v>1.252197295737763</v>
+        <v>1.047066261619329</v>
       </c>
       <c r="D21" t="n">
-        <v>0.593984377027483</v>
+        <v>0.6497625411984533</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5555465240024535</v>
+        <v>0.5991605111639504</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.18174032647342</v>
+        <v>70.12205987941073</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9630064430336157</v>
+        <v>0.7966741075118383</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6918174032647342</v>
+        <v>0.7012205987941071</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6660810706014166</v>
+        <v>0.6890667162092636</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63.85254197700672</v>
+        <v>63.05608180001557</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8693057095011076</v>
+        <v>0.8762035394708315</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6385254197700673</v>
+        <v>0.6305608180001557</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6320509096140932</v>
+        <v>0.617119596236163</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.44757307589166</v>
+        <v>62.60685646069603</v>
       </c>
       <c r="C24" t="n">
-        <v>0.924647182971239</v>
+        <v>0.862586360424757</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5944757307589166</v>
+        <v>0.6260685646069603</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5835628920965601</v>
+        <v>0.6178124714690287</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.79420237199284</v>
+        <v>52.94846841235651</v>
       </c>
       <c r="C25" t="n">
-        <v>1.264398790399234</v>
+        <v>1.134426005681356</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4979420237199284</v>
+        <v>0.5294846841235652</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4671228228673316</v>
+        <v>0.5100721406680845</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>67.08371179681485</v>
+        <v>67.52567063728925</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7956571407616139</v>
+        <v>0.7460577915112178</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6708371179681485</v>
+        <v>0.6752567063728925</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6585879333606586</v>
+        <v>0.6563660218589366</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58.13657557591328</v>
+        <v>54.65626865284302</v>
       </c>
       <c r="C27" t="n">
-        <v>1.229246510875722</v>
+        <v>1.23828206807375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5813657557591329</v>
+        <v>0.5465626865284301</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5588808577377684</v>
+        <v>0.5146257035745622</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.56419173176238</v>
+        <v>57.13051150961513</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8707586251199245</v>
+        <v>1.001732397451997</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6056419173176238</v>
+        <v>0.5713051150961513</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5777751585285287</v>
+        <v>0.5315653030367707</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>74.06015622972517</v>
+        <v>72.15797714513101</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5855075647433599</v>
+        <v>0.698327861726284</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7406015622972517</v>
+        <v>0.7215797714513101</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7351179813429675</v>
+        <v>0.7128749333226303</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78.96210174828502</v>
+        <v>78.28588482599331</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4641313808717921</v>
+        <v>0.4495005535466287</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7896210174828502</v>
+        <v>0.7828588482599331</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7869349287286095</v>
+        <v>0.7693860566841676</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.05702471474667</v>
+        <v>92.91092483498991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2345500908025618</v>
+        <v>0.2116028741933405</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9205702471474666</v>
+        <v>0.9291092483498993</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9198900024493136</v>
+        <v>0.9296122994517113</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.10430021020942</v>
+        <v>64.41834271922768</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8635191389801589</v>
+        <v>0.8542437144178741</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6410430021020942</v>
+        <v>0.6441834271922767</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6255283818931329</v>
+        <v>0.6277734756517799</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.772589813022973</v>
+        <v>8.484470145448974</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2237712808633741</v>
+        <v>0.2021205281076355</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08772589813022971</v>
+        <v>0.08484470145448975</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09559680899042977</v>
+        <v>0.09134816497976446</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.02548464952119</v>
+        <v>46.91217052050623</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08432754377524</v>
+        <v>1.195699853698412</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4602548464952119</v>
+        <v>0.4691217052050624</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4179933161106374</v>
+        <v>0.418126727955373</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.26142094654798</v>
+        <v>41.03391897853788</v>
       </c>
       <c r="C3" t="n">
-        <v>1.265637398262819</v>
+        <v>1.492910813788573</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4026142094654798</v>
+        <v>0.4103391897853788</v>
       </c>
       <c r="E3" t="n">
-        <v>0.357555202784702</v>
+        <v>0.3743082343175521</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.02935146497807</v>
+        <v>49.44385332053046</v>
       </c>
       <c r="C4" t="n">
-        <v>1.212000487248103</v>
+        <v>1.104302589098612</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4302935146497807</v>
+        <v>0.4944385332053045</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3888404414433616</v>
+        <v>0.4910779338713642</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.37546172544745</v>
+        <v>40.98469709945588</v>
       </c>
       <c r="C5" t="n">
-        <v>1.165664688746134</v>
+        <v>1.180871590971947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4337546172544745</v>
+        <v>0.4098469709945587</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3796623400099353</v>
+        <v>0.3690398826883824</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.61127691416016</v>
+        <v>41.74785249007344</v>
       </c>
       <c r="C6" t="n">
-        <v>1.172001471122106</v>
+        <v>1.177420909206073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4361127691416016</v>
+        <v>0.4174785249007344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4078230931909613</v>
+        <v>0.3716306152954242</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.88574295625395</v>
+        <v>40.61142397425583</v>
       </c>
       <c r="C7" t="n">
-        <v>1.17933272322019</v>
+        <v>1.313126836220424</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4188574295625395</v>
+        <v>0.4061142397425583</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3953902143258739</v>
+        <v>0.3590514120812196</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.49390565662333</v>
+        <v>68.85950570506665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7479690011901161</v>
+        <v>0.7542009696364402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6549390565662333</v>
+        <v>0.6885950570506665</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6561276997181351</v>
+        <v>0.6762099950183126</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.34396491319129</v>
+        <v>63.84060415747541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8863565280102194</v>
+        <v>0.8508147087569039</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6234396491319129</v>
+        <v>0.6384060415747541</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5943062080954553</v>
+        <v>0.5922549860149809</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.68876028339346</v>
+        <v>63.42710577081117</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8970204050342241</v>
+        <v>0.8394447702914476</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6068876028339345</v>
+        <v>0.6342710577081117</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5896721114082806</v>
+        <v>0.6150703380878586</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.06626354899264</v>
+        <v>47.29565134646494</v>
       </c>
       <c r="C11" t="n">
-        <v>1.132182679573695</v>
+        <v>1.240860666831334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5006626354899264</v>
+        <v>0.4729565134646494</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4693644937374838</v>
+        <v>0.4328918527481395</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45.8984939316084</v>
+        <v>43.15218989783649</v>
       </c>
       <c r="C12" t="n">
-        <v>1.095094776153565</v>
+        <v>1.311490698158741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4589849393160841</v>
+        <v>0.4315218989783648</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4511445247590596</v>
+        <v>0.3479590885483123</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.41194993036272</v>
+        <v>55.36457927836746</v>
       </c>
       <c r="C13" t="n">
-        <v>1.175145116448402</v>
+        <v>1.04853472361962</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5141194993036271</v>
+        <v>0.5536457927836747</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4682480622841078</v>
+        <v>0.5206503112062956</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.18394622790854</v>
+        <v>52.24742428567721</v>
       </c>
       <c r="C14" t="n">
-        <v>1.167642681052288</v>
+        <v>1.121064153810342</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5418394622790854</v>
+        <v>0.5224742428567721</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5087455382934016</v>
+        <v>0.4879324133438893</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.90157354302373</v>
+        <v>43.75357918321093</v>
       </c>
       <c r="C15" t="n">
-        <v>1.271018559734027</v>
+        <v>1.168733781576157</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4190157354302373</v>
+        <v>0.4375357918321093</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3726838225786921</v>
+        <v>0.4030036980673357</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.82054343030649</v>
+        <v>39.36816062422685</v>
       </c>
       <c r="C16" t="n">
-        <v>1.173921792705854</v>
+        <v>1.203838381171227</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4482054343030649</v>
+        <v>0.3936816062422685</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3892099445859989</v>
+        <v>0.3498025036954121</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.04025986383965</v>
+        <v>35.88508551112034</v>
       </c>
       <c r="C17" t="n">
-        <v>1.224177623788516</v>
+        <v>1.476935527225335</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4404025986383965</v>
+        <v>0.3588508551112034</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4131654664168057</v>
+        <v>0.3073558107166536</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47.41174231610999</v>
+        <v>41.30502859021271</v>
       </c>
       <c r="C18" t="n">
-        <v>1.233949894209703</v>
+        <v>1.16058553904295</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4741174231610999</v>
+        <v>0.4130502859021272</v>
       </c>
       <c r="E18" t="n">
-        <v>0.43619219980624</v>
+        <v>0.3840474792165625</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.5632920700006</v>
+        <v>54.00435989930709</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9860165054599443</v>
+        <v>1.028719776620468</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5656329207000061</v>
+        <v>0.5400435989930709</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5363312200956634</v>
+        <v>0.5022354864648869</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.43761624235503</v>
+        <v>51.3258765214232</v>
       </c>
       <c r="C20" t="n">
-        <v>1.288940869768461</v>
+        <v>1.321491375317176</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4843761624235504</v>
+        <v>0.513258765214232</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4436118969639017</v>
+        <v>0.4548358491484837</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>48.65915795119335</v>
+        <v>51.95209301118522</v>
       </c>
       <c r="C21" t="n">
-        <v>1.146395680308342</v>
+        <v>1.312112474689881</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4865915795119335</v>
+        <v>0.5195209301118522</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4309254484123118</v>
+        <v>0.4787471021900457</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.0633742506423</v>
+        <v>50.38953624166299</v>
       </c>
       <c r="C22" t="n">
-        <v>1.091924045979977</v>
+        <v>1.296367494265238</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5606337425064231</v>
+        <v>0.5038953624166299</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5391560541235971</v>
+        <v>0.4743885797199605</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.15477642540161</v>
+        <v>44.86466145900916</v>
       </c>
       <c r="C23" t="n">
-        <v>1.219450479745865</v>
+        <v>1.194887130955855</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4215477642540161</v>
+        <v>0.4486466145900916</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3754313419868022</v>
+        <v>0.4007892602008258</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>52.38989956660525</v>
+        <v>51.26618742376665</v>
       </c>
       <c r="C24" t="n">
-        <v>1.043445411324501</v>
+        <v>1.049758939941724</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5238989956660525</v>
+        <v>0.5126618742376664</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5096325149677345</v>
+        <v>0.5017292249224548</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.4306784660767</v>
+        <v>38.33138694971409</v>
       </c>
       <c r="C25" t="n">
-        <v>1.221037984887759</v>
+        <v>1.337421897053719</v>
       </c>
       <c r="D25" t="n">
-        <v>0.464306784660767</v>
+        <v>0.383313869497141</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4228591333950392</v>
+        <v>0.3353104491327269</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>43.44354189915138</v>
+        <v>48.94843380998105</v>
       </c>
       <c r="C26" t="n">
-        <v>1.287842039267222</v>
+        <v>1.407815673450629</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4344354189915138</v>
+        <v>0.4894843380998106</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4060841627720906</v>
+        <v>0.4248372043743777</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>46.01562297251706</v>
+        <v>35.91233488178963</v>
       </c>
       <c r="C27" t="n">
-        <v>1.202327923973401</v>
+        <v>1.660271306832631</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4601562297251706</v>
+        <v>0.3591233488178963</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4510633690036737</v>
+        <v>0.2941303347730615</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.07095217086653</v>
+        <v>52.59102587392624</v>
       </c>
       <c r="C28" t="n">
-        <v>1.311773783961932</v>
+        <v>1.153937144577503</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4207095217086653</v>
+        <v>0.5259102587392623</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3590273742974341</v>
+        <v>0.4698512367038395</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.41420773536104</v>
+        <v>54.30194032820354</v>
       </c>
       <c r="C29" t="n">
-        <v>1.079396595557531</v>
+        <v>1.002474874754747</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5241420773536103</v>
+        <v>0.5430194032820352</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4971393107901235</v>
+        <v>0.4976702009506069</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>74.54562755733181</v>
+        <v>73.75280062976324</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5954632163047791</v>
+        <v>0.5665500619274099</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7454562755733181</v>
+        <v>0.7375280062976324</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7270956689887085</v>
+        <v>0.7300799750265157</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.73109628976029</v>
+        <v>83.72036090277598</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4368105659106125</v>
+        <v>0.4157699001254514</v>
       </c>
       <c r="D31" t="n">
-        <v>0.847310962897603</v>
+        <v>0.8372036090277598</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8455168218821052</v>
+        <v>0.8315115363572542</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.6789995299844</v>
+        <v>50.21979428887792</v>
       </c>
       <c r="C32" t="n">
-        <v>1.099808949090851</v>
+        <v>1.146280485453899</v>
       </c>
       <c r="D32" t="n">
-        <v>0.506789995299844</v>
+        <v>0.5021979428887792</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4746666332409439</v>
+        <v>0.463217657427937</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.12250393366327</v>
+        <v>11.07653781066678</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2012106949352423</v>
+        <v>0.259174242965414</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1012250393366328</v>
+        <v>0.1107653781066678</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1116947451289824</v>
+        <v>0.1225983870068527</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.1.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.1.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.19503628924126</v>
+        <v>86.43102448983123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3998116984053922</v>
+        <v>0.3889764931673805</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8619503628924126</v>
+        <v>0.8643102448983123</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8507742611219467</v>
+        <v>0.8511535687406875</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.88495575221239</v>
+        <v>91.44646579987716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2555306063217965</v>
+        <v>0.2715180610096771</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9088495575221238</v>
+        <v>0.9144646579987716</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9042360885525028</v>
+        <v>0.9072950998186313</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.69338835111031</v>
+        <v>86.16519174041298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4657682580805461</v>
+        <v>0.3690550576415262</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8569338835111029</v>
+        <v>0.8616519174041297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8403916274462817</v>
+        <v>0.8496168378244722</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.76642531509788</v>
+        <v>88.43865431361863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2528800225971887</v>
+        <v>0.3048452522334021</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8876642531509787</v>
+        <v>0.8843865431361863</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8893908925248855</v>
+        <v>0.877123190026234</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.71021375617435</v>
+        <v>93.00884955752213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2908403042703867</v>
+        <v>0.2024197240127251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9071021375617436</v>
+        <v>0.9300884955752213</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9065386653837632</v>
+        <v>0.9276382342717813</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.66595731796988</v>
+        <v>87.55508265642436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4092582286025087</v>
+        <v>0.3029036529362202</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8466595731796988</v>
+        <v>0.8755508265642437</v>
       </c>
       <c r="E7" t="n">
-        <v>0.835542535295251</v>
+        <v>0.8734773642647081</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.75151169127761</v>
+        <v>88.43657817109144</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3616786019609814</v>
+        <v>0.2895748751284827</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8475151169127761</v>
+        <v>0.8843657817109145</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8436551441824124</v>
+        <v>0.8755550566555741</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.30659434770197</v>
+        <v>93.33350634521059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1738246642961409</v>
+        <v>0.1638941999549085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9230659434770198</v>
+        <v>0.9333350634521059</v>
       </c>
       <c r="E9" t="n">
-        <v>0.922357345684126</v>
+        <v>0.9310742444839913</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.22418879056048</v>
+        <v>96.46017699115045</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1136879169633573</v>
+        <v>0.09577233018605208</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9622418879056047</v>
+        <v>0.9646017699115044</v>
       </c>
       <c r="E10" t="n">
-        <v>0.962332567689673</v>
+        <v>0.9644779931206573</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.30105796762948</v>
+        <v>94.89692817411915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1659734367949568</v>
+        <v>0.1145748729836972</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9230105796762947</v>
+        <v>0.9489692817411916</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9179603466990773</v>
+        <v>0.9491335516074006</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.52055813631605</v>
+        <v>88.1122674071575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.350519643277706</v>
+        <v>0.3000564264832065</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8652055813631605</v>
+        <v>0.881122674071575</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8568401463476517</v>
+        <v>0.8772463347922101</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.15564148478794</v>
+        <v>93.8646528084153</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2035145480263358</v>
+        <v>0.1586553193784009</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9215564148478794</v>
+        <v>0.9386465280841531</v>
       </c>
       <c r="E13" t="n">
-        <v>0.919941042645165</v>
+        <v>0.937258977548122</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.34842861962474</v>
+        <v>89.52836962257459</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2912621363209231</v>
+        <v>0.252157991688</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8834842861962473</v>
+        <v>0.8952836962257459</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8739273950797835</v>
+        <v>0.888206874157184</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.16201697246515</v>
+        <v>83.84069066341405</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4692445129699384</v>
+        <v>0.3798578821122646</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7916201697246515</v>
+        <v>0.8384069066341404</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7826251731545102</v>
+        <v>0.8320202523526602</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.56010865145893</v>
+        <v>89.38105000908313</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2864774194507239</v>
+        <v>0.2766537310012306</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8856010865145892</v>
+        <v>0.8938105000908312</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8833338454402166</v>
+        <v>0.889366975204451</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.98264690871028</v>
+        <v>93.39250339535809</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1595693617350965</v>
+        <v>0.1614204259531107</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9398264690871029</v>
+        <v>0.933925033953581</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9397869706524231</v>
+        <v>0.9319599960765237</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.47767714253584</v>
+        <v>90.65121670602687</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2864926372577997</v>
+        <v>0.2476937321621866</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8947767714253583</v>
+        <v>0.9065121670602687</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8919067875945725</v>
+        <v>0.8980028148960226</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.63161446033271</v>
+        <v>95.13308938658638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1598525970441794</v>
+        <v>0.1380735428078272</v>
       </c>
       <c r="D19" t="n">
-        <v>0.946316144603327</v>
+        <v>0.9513308938658639</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9446905826952026</v>
+        <v>0.9493733233314463</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.82160745335167</v>
+        <v>90.35398230088495</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3089353099911629</v>
+        <v>0.2803810565538394</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8782160745335167</v>
+        <v>0.9035398230088495</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8767534391781929</v>
+        <v>0.8932131667482383</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.38726113547696</v>
+        <v>75.58975423662835</v>
       </c>
       <c r="C21" t="n">
-        <v>0.543301161370861</v>
+        <v>0.6919689862678448</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7738726113547696</v>
+        <v>0.7558975423662835</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7581320352860185</v>
+        <v>0.732460732505795</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.73638180261075</v>
+        <v>89.76920215572798</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3793009858500833</v>
+        <v>0.2665355276238794</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8573638180261074</v>
+        <v>0.8976920215572799</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8447790289337884</v>
+        <v>0.8903814035869294</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.58768674469502</v>
+        <v>89.20353982300885</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3422638028743677</v>
+        <v>0.2888232686682992</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8658768674469502</v>
+        <v>0.8920353982300885</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8630800428903885</v>
+        <v>0.8861119521819176</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.08571873459114</v>
+        <v>91.82890855457227</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2730941150424769</v>
+        <v>0.2056090973678996</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8908571873459113</v>
+        <v>0.9182890855457227</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8877711128511603</v>
+        <v>0.9154074385722838</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.93057898424726</v>
+        <v>89.79351032448378</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3893205043432924</v>
+        <v>0.2725541382853408</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8493057898424727</v>
+        <v>0.8979351032448377</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8446747189332487</v>
+        <v>0.8953261815971285</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.22193098556215</v>
+        <v>88.96755162241888</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3555091948073823</v>
+        <v>0.3121770155154081</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8522193098556216</v>
+        <v>0.8896755162241888</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8395028030691055</v>
+        <v>0.8758553788050696</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.43933771053382</v>
+        <v>81.44560074049083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7287342043879713</v>
+        <v>0.7477099570062515</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7743933771053383</v>
+        <v>0.8144560074049083</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7600000487088362</v>
+        <v>0.8069055669439621</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.85526691407365</v>
+        <v>80.94395280235987</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7845206911176017</v>
+        <v>0.6377321820997167</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7885526691407365</v>
+        <v>0.8094395280235988</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7722378217717847</v>
+        <v>0.795185075782613</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97.05014749262537</v>
+        <v>98.67256637168141</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07505470901407232</v>
+        <v>0.03945729812906885</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9705014749262537</v>
+        <v>0.9867256637168141</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9705177772746527</v>
+        <v>0.9866878903054228</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.08571873459114</v>
+        <v>98.61356932153392</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02773296911603514</v>
+        <v>0.03373471997928543</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9908571873459113</v>
+        <v>0.9861356932153391</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9908618243210128</v>
+        <v>0.9861779205227659</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.49557522123894</v>
+        <v>97.28613569321534</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05925192441178145</v>
+        <v>0.05471760654927209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9849557522123893</v>
+        <v>0.9728613569321534</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9849119245544726</v>
+        <v>0.9724382244258252</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.43450779562684</v>
+        <v>90.08481907282935</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3121068722234349</v>
+        <v>0.2749834808295468</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8843450779562684</v>
+        <v>0.9008481907282935</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8786484665320703</v>
+        <v>0.8948710540383569</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.697035515958493</v>
+        <v>5.138055013274308</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1715000827074824</v>
+        <v>0.1688077260855628</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05697035515958493</v>
+        <v>0.05138055013274309</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06149859449342659</v>
+        <v>0.05586914689728746</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.15981107103002</v>
+        <v>87.99410029498526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.412365656386343</v>
+        <v>0.3242549340067247</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8415981107103002</v>
+        <v>0.8799410029498524</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8348897384302078</v>
+        <v>0.8720084642496844</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.846071332797</v>
+        <v>92.0353982300885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3787731488817371</v>
+        <v>0.2327506639058508</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85846071332797</v>
+        <v>0.9203539823008849</v>
       </c>
       <c r="E3" t="n">
-        <v>0.85713658400021</v>
+        <v>0.9184301409433111</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.89605446413897</v>
+        <v>84.74926253687315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4521922358719166</v>
+        <v>0.4367185687102998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8389605446413896</v>
+        <v>0.8474926253687316</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8277971875553701</v>
+        <v>0.8317374563527888</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.96770733310842</v>
+        <v>88.02377183193627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3160721015650779</v>
+        <v>0.2670492273352769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8696770733310842</v>
+        <v>0.8802377183193627</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8659543676859693</v>
+        <v>0.8802278025882109</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.53530739885294</v>
+        <v>92.12389380530973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2619297416570286</v>
+        <v>0.2438082302493664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9153530739885293</v>
+        <v>0.9212389380530974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9155450681355569</v>
+        <v>0.9185581145365521</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.3763440860215</v>
+        <v>87.35776261040321</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3607889494858682</v>
+        <v>0.3239519873886214</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8537634408602151</v>
+        <v>0.8735776261040321</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8505740342582451</v>
+        <v>0.8706950556819443</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.75722973382122</v>
+        <v>86.69685723924947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3446388059671638</v>
+        <v>0.3310599086781849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8575722973382123</v>
+        <v>0.8669685723924948</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8558217054019266</v>
+        <v>0.8568173566259695</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.59946885353679</v>
+        <v>93.30729504580489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2784311559653361</v>
+        <v>0.1577713488183993</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8859946885353679</v>
+        <v>0.9330729504580489</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8813181407507372</v>
+        <v>0.9329926598584699</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.83636536648241</v>
+        <v>95.22158496180762</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1598019382916367</v>
+        <v>0.1311292821141478</v>
       </c>
       <c r="D10" t="n">
-        <v>0.938363653664824</v>
+        <v>0.9522158496180764</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9377782007288354</v>
+        <v>0.9518222450190171</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.27553871573284</v>
+        <v>94.30678466076697</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1788998632986477</v>
+        <v>0.1235869260994794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9227553871573283</v>
+        <v>0.9430678466076696</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9227524225141277</v>
+        <v>0.9421083702678181</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.3754963278229</v>
+        <v>86.51952006505246</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2968922750636315</v>
+        <v>0.3817893090551176</v>
       </c>
       <c r="D12" t="n">
-        <v>0.873754963278229</v>
+        <v>0.8651952006505248</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8728673925383686</v>
+        <v>0.8593682465745811</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.38519364354363</v>
+        <v>93.15634218289085</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2943511439875389</v>
+        <v>0.1894244180390767</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8838519364354364</v>
+        <v>0.9315634218289086</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8792516657410644</v>
+        <v>0.9291060945274504</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.84660766961652</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2953725171362748</v>
+        <v>0.2689182151254499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8784660766961652</v>
+        <v>0.9</v>
       </c>
       <c r="E14" t="n">
-        <v>0.870959387143633</v>
+        <v>0.8966366529130859</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.70915838372305</v>
+        <v>83.01888424640352</v>
       </c>
       <c r="C15" t="n">
-        <v>0.464382947018991</v>
+        <v>0.3710998555645347</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7870915838372304</v>
+        <v>0.8301888424640351</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7696695295217865</v>
+        <v>0.8299762121240697</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.19031306499191</v>
+        <v>88.46919090995597</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5171511185045043</v>
+        <v>0.302793343225494</v>
       </c>
       <c r="D16" t="n">
-        <v>0.801903130649919</v>
+        <v>0.8846919090995596</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7942215190881966</v>
+        <v>0.8783536242820142</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.12146298843416</v>
+        <v>91.82890855457228</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2372579777225231</v>
+        <v>0.2001702516815082</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9112146298843415</v>
+        <v>0.9182890855457227</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9103557489084334</v>
+        <v>0.9134679652757605</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.56478862273896</v>
+        <v>89.50250434692342</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2680111102487729</v>
+        <v>0.2604383793271454</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8956478862273896</v>
+        <v>0.8950250434692342</v>
       </c>
       <c r="E18" t="n">
-        <v>0.892564072249084</v>
+        <v>0.8892228042977652</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.45219249301465</v>
+        <v>94.60211593525895</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1624458624205241</v>
+        <v>0.1479590573152867</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9345219249301465</v>
+        <v>0.9460211593525896</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9325219186807823</v>
+        <v>0.9456557430318335</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.6095727471691</v>
+        <v>89.5313108244881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3796306737232953</v>
+        <v>0.2589680058959251</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8660957274716911</v>
+        <v>0.895313108244881</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8540499897034317</v>
+        <v>0.891581458655461</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.03725810776909</v>
+        <v>72.99786330331577</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6584798761953909</v>
+        <v>0.8908168203551516</v>
       </c>
       <c r="D21" t="n">
-        <v>0.770372581077691</v>
+        <v>0.7299786330331577</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7513562786857196</v>
+        <v>0.6930563843468314</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.02998295833009</v>
+        <v>87.43829963927024</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3807523586709674</v>
+        <v>0.3625153842149302</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8602998295833009</v>
+        <v>0.8743829963927023</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8468403191880686</v>
+        <v>0.8621878016262844</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.22765767869964</v>
+        <v>91.26843657817109</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3332696960307658</v>
+        <v>0.230143864704102</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8722765767869964</v>
+        <v>0.9126843657817109</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8687240908433095</v>
+        <v>0.9072002227691269</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.08589174646839</v>
+        <v>91.29914618638568</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2708238852295229</v>
+        <v>0.2096685892593086</v>
       </c>
       <c r="D24" t="n">
-        <v>0.890858917464684</v>
+        <v>0.9129914618638569</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8888781332797896</v>
+        <v>0.912742282454966</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.87870137284924</v>
+        <v>86.37531466535178</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3203146643160532</v>
+        <v>0.353436757432064</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8787870137284924</v>
+        <v>0.8637531466535178</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8744797540802107</v>
+        <v>0.8537010128404736</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>83.28125675827646</v>
+        <v>89.38053097345133</v>
       </c>
       <c r="C26" t="n">
-        <v>0.385358963663748</v>
+        <v>0.2844356084240038</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8328125675827647</v>
+        <v>0.8938053097345133</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8250051041801421</v>
+        <v>0.8825625489597752</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>72.29154231437988</v>
+        <v>80.56064498827845</v>
       </c>
       <c r="C27" t="n">
-        <v>1.162346483155397</v>
+        <v>0.8023309736216712</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7229154231437989</v>
+        <v>0.8056064498827844</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7056587144923387</v>
+        <v>0.7972111314142795</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.20941357624201</v>
+        <v>82.09577937525411</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7059395814527912</v>
+        <v>0.6594969244111174</v>
       </c>
       <c r="D28" t="n">
-        <v>0.78209413576242</v>
+        <v>0.8209577937525412</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7660525864250366</v>
+        <v>0.8049269955478359</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.54867256637168</v>
+        <v>97.64011799410029</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0883847022712871</v>
+        <v>0.06668518089475886</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9654867256637167</v>
+        <v>0.976401179941003</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9656493549772673</v>
+        <v>0.9766841446284922</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>91.59395842524589</v>
+        <v>95.54572271386431</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2250148512294496</v>
+        <v>0.08819170280971964</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9159395842524589</v>
+        <v>0.955457227138643</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9116687431938729</v>
+        <v>0.9543941412195677</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.22852273808597</v>
+        <v>96.047197640118</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08229731175839941</v>
+        <v>0.08498448117310643</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9722852273808597</v>
+        <v>0.9604719764011799</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9721460488721949</v>
+        <v>0.9588384899344536</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>86.93058475130985</v>
+        <v>89.30315141134439</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3557457199056862</v>
+        <v>0.2995449399945275</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8693058475130984</v>
+        <v>0.8930315141134441</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8634162600417971</v>
+        <v>0.8870757207849291</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.578880324266</v>
+        <v>5.138427027829217</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2038235729384417</v>
+        <v>0.1885857484911746</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05578880324265998</v>
+        <v>0.05138427027829217</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06066426777449698</v>
+        <v>0.05742674596073541</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.81814721580636</v>
+        <v>86.78483377883893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3244003215649476</v>
+        <v>0.3603913603918045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8781814721580637</v>
+        <v>0.8678483377883891</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8767154804188964</v>
+        <v>0.8585887593500352</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.74543032379174</v>
+        <v>88.28977759323178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5325383566630383</v>
+        <v>0.4125352867141676</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8174543032379173</v>
+        <v>0.8828977759323177</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7984580292192099</v>
+        <v>0.8755377232280985</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.24967344008166</v>
+        <v>83.30746805768216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5344961040013004</v>
+        <v>0.5874922599255418</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8224967344008165</v>
+        <v>0.8330746805768217</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8066789746703131</v>
+        <v>0.810769828820385</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.4355054974524</v>
+        <v>87.22869574996324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3654368303560963</v>
+        <v>0.2838191520733138</v>
       </c>
       <c r="D5" t="n">
-        <v>0.844355054974524</v>
+        <v>0.8722869574996324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8398314382356254</v>
+        <v>0.8712356360297416</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.72686614936114</v>
+        <v>92.12423982906427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4179165062805016</v>
+        <v>0.2399556025862694</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8572686614936116</v>
+        <v>0.9212423982906426</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8574881565407502</v>
+        <v>0.9222038018329896</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.78357944272875</v>
+        <v>83.02009532954438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4660690105209748</v>
+        <v>0.4382617173095544</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8178357944272875</v>
+        <v>0.8302009532954437</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8166413323770951</v>
+        <v>0.8244233029284749</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.78411577954827</v>
+        <v>86.0289448870665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3985180584357295</v>
+        <v>0.3315469908367959</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8378411577954827</v>
+        <v>0.8602894488706649</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8254234167773156</v>
+        <v>0.8564226017613172</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.29948355954636</v>
+        <v>89.0771546466665</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2217605557688633</v>
+        <v>0.2977585260305204</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9029948355954636</v>
+        <v>0.890771546466665</v>
       </c>
       <c r="E9" t="n">
-        <v>0.900987861155331</v>
+        <v>0.8878987231598018</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.32569485895206</v>
+        <v>96.0477166757498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3210129378712734</v>
+        <v>0.1097413194674042</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9032569485895208</v>
+        <v>0.9604771667574979</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9000959841756687</v>
+        <v>0.9602302068540898</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.62431335911211</v>
+        <v>93.27866158011747</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2066998500648575</v>
+        <v>0.1702140325466947</v>
       </c>
       <c r="D11" t="n">
-        <v>0.906243133591121</v>
+        <v>0.9327866158011748</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9057658453413993</v>
+        <v>0.9325839041748099</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.19381655550653</v>
+        <v>86.66926184482564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3926542551334327</v>
+        <v>0.3589519359753467</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8519381655550653</v>
+        <v>0.8666926184482564</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8514712759799371</v>
+        <v>0.8687775746430692</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.97879739444113</v>
+        <v>92.00987897819185</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3081337748483444</v>
+        <v>0.188061930545761</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8897879739444112</v>
+        <v>0.9200987897819186</v>
       </c>
       <c r="E13" t="n">
-        <v>0.888592383307573</v>
+        <v>0.9192876670326111</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81.74283514563275</v>
+        <v>86.60784262839644</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5196847898924413</v>
+        <v>0.3402849681432902</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8174283514563274</v>
+        <v>0.8660784262839645</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7977481407156685</v>
+        <v>0.8549490844258416</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.35308263912319</v>
+        <v>76.77254993555307</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6262744154781104</v>
+        <v>0.6934344647762676</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7635308263912318</v>
+        <v>0.7677254993555308</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7453201925377207</v>
+        <v>0.7450993122544123</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.95361551570515</v>
+        <v>79.59342208842637</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5897692323972782</v>
+        <v>0.6096520835611348</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7795361551570515</v>
+        <v>0.7959342208842637</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7685663095273427</v>
+        <v>0.7906096871004044</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.47336049619807</v>
+        <v>88.58562790335557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2384403891027129</v>
+        <v>0.2866632592796426</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9047336049619806</v>
+        <v>0.8858562790335556</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9034157424856624</v>
+        <v>0.8829365836770364</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.67165805932578</v>
+        <v>88.59652765162329</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4070674284215532</v>
+        <v>0.3143054292321116</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8367165805932577</v>
+        <v>0.8859652765162329</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8297465604873281</v>
+        <v>0.8843715941819712</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.37722644659556</v>
+        <v>92.06576181454857</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3290722312234114</v>
+        <v>0.2015199055172464</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8737722644659556</v>
+        <v>0.9206576181454856</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8705472437684822</v>
+        <v>0.9208708716169183</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.38062612998382</v>
+        <v>81.1615152380211</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5653471774732073</v>
+        <v>0.5130746676897009</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8038062612998382</v>
+        <v>0.811615152380211</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7973000105653518</v>
+        <v>0.8070459325439755</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.37925068555957</v>
+        <v>71.66195209301119</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8665563239715993</v>
+        <v>0.9026713399526974</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7137925068555957</v>
+        <v>0.7166195209301118</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6927022235962295</v>
+        <v>0.6859866166224065</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.20784781875275</v>
+        <v>84.31768440903468</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4184908490938445</v>
+        <v>0.4649696678544085</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8720784781875276</v>
+        <v>0.8431768440903469</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8556120639937905</v>
+        <v>0.8364612805407402</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.63612141973547</v>
+        <v>89.32239898269016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3481892395143708</v>
+        <v>0.3128468278873091</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8563612141973547</v>
+        <v>0.8932239898269015</v>
       </c>
       <c r="E23" t="n">
-        <v>0.84980802078497</v>
+        <v>0.8785934766016019</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.37600671286084</v>
+        <v>87.93700637548768</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3541792902256323</v>
+        <v>0.3045230808153671</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8637600671286083</v>
+        <v>0.8793700637548767</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8625180075562359</v>
+        <v>0.8760822803326039</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.93125373056861</v>
+        <v>85.01786347632765</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4364769704639911</v>
+        <v>0.4287452813781177</v>
       </c>
       <c r="D25" t="n">
-        <v>0.829312537305686</v>
+        <v>0.8501786347632765</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8257125733552808</v>
+        <v>0.8437777787746599</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.25177553439043</v>
+        <v>87.90577773164128</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3831804807132964</v>
+        <v>0.3195494347528438</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8525177553439043</v>
+        <v>0.8790577773164128</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8437220087916506</v>
+        <v>0.8692551585047472</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.79070753207208</v>
+        <v>79.35535774530922</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9459214336015671</v>
+        <v>0.8325724007057336</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7579070753207208</v>
+        <v>0.7935535774530922</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7365088004124771</v>
+        <v>0.7850684485607677</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.95209301118521</v>
+        <v>81.97726623932734</v>
       </c>
       <c r="C28" t="n">
-        <v>1.050983463662366</v>
+        <v>0.6986544021536247</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7195209301118521</v>
+        <v>0.8197726623932733</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6904931273619896</v>
+        <v>0.8062403201352495</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.13274336283186</v>
+        <v>97.0796460176991</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1263557563215727</v>
+        <v>0.07563342777187548</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9513274336283185</v>
+        <v>0.9707964601769911</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9517046246469505</v>
+        <v>0.9707112189680311</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>91.09577072466024</v>
+        <v>93.80790491267226</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2168824696644151</v>
+        <v>0.1583859722360103</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9109577072466024</v>
+        <v>0.9380790491267226</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9084216653328134</v>
+        <v>0.9383265360939281</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.28803882386526</v>
+        <v>96.37306551094733</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07753081603458062</v>
+        <v>0.1021018699085857</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9728803882386525</v>
+        <v>0.9637306551094733</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9726966771245614</v>
+        <v>0.9634633063163373</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.6986479121792</v>
+        <v>87.06686332350048</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4330013106255103</v>
+        <v>0.3779439532673047</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8469864791217917</v>
+        <v>0.8706686332350049</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8390231390414539</v>
+        <v>0.8642603072355686</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.990719986582151</v>
+        <v>5.792163275426439</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2173422778181758</v>
+        <v>0.2063334574433714</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05990719986582151</v>
+        <v>0.05792163275426441</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0665071345531744</v>
+        <v>0.06380780279905268</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.60223704357304</v>
+        <v>84.75479891694565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4788440636048715</v>
+        <v>0.3949123784628076</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7860223704357304</v>
+        <v>0.8475479891694565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7808623950584896</v>
+        <v>0.8364536081223349</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.89213574511891</v>
+        <v>82.61161428732082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7248707052941123</v>
+        <v>0.433361357357353</v>
       </c>
       <c r="D3" t="n">
-        <v>0.708921357451189</v>
+        <v>0.8261161428732082</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7057377008917634</v>
+        <v>0.8231149983408941</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.14084896928173</v>
+        <v>80.80632185399529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7336297377866383</v>
+        <v>0.6768832046460981</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7214084896928175</v>
+        <v>0.8080632185399528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7015636657436346</v>
+        <v>0.7886424477857805</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.84426335867957</v>
+        <v>79.22360920077163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5564566902195415</v>
+        <v>0.4756139778066427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7684426335867958</v>
+        <v>0.7922360920077163</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7677269220077705</v>
+        <v>0.7879069733147337</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.36374882135658</v>
+        <v>78.72248029827247</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7289493521054585</v>
+        <v>0.4983571603894233</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6936374882135659</v>
+        <v>0.7872248029827247</v>
       </c>
       <c r="E6" t="n">
-        <v>0.685611456471124</v>
+        <v>0.7868838008132425</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.07189508559763</v>
+        <v>78.250157873338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8043215900659562</v>
+        <v>0.6165952449664474</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7107189508559763</v>
+        <v>0.78250157873338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6956739184158869</v>
+        <v>0.77395438872806</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.40143945881884</v>
+        <v>80.6750923450895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.549261334760619</v>
+        <v>0.4871306011026415</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7640143945881885</v>
+        <v>0.8067509234508948</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7582554868833082</v>
+        <v>0.8047243474276169</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.86579468680524</v>
+        <v>89.44558343930311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.387758084050923</v>
+        <v>0.2901881246011423</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8586579468680524</v>
+        <v>0.8944558343930311</v>
       </c>
       <c r="E9" t="n">
-        <v>0.856009639283022</v>
+        <v>0.8912112938157722</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.69752333497695</v>
+        <v>83.83826849713232</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3980042488032874</v>
+        <v>0.4368244256846993</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8369752333497695</v>
+        <v>0.8383826849713232</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8321511673056909</v>
+        <v>0.835757117279015</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.96696338203617</v>
+        <v>81.60364709037276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.463649274284641</v>
+        <v>0.4635594598948956</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8096696338203617</v>
+        <v>0.8160364709037274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8082364266316837</v>
+        <v>0.8105655881350229</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.40999489614963</v>
+        <v>80.06263029957006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6042708623533447</v>
+        <v>0.4939686732677122</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7540999489614962</v>
+        <v>0.8006263029957006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7481638672672822</v>
+        <v>0.7984267092920835</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.12177440981324</v>
+        <v>81.38937188037958</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6430400225023429</v>
+        <v>0.4888277019684513</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7712177440981323</v>
+        <v>0.8138937188037959</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7697862148381655</v>
+        <v>0.8101692747011391</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.1292225711295</v>
+        <v>82.8078962620784</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5141822151757272</v>
+        <v>0.3876396411835837</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7812922257112951</v>
+        <v>0.828078962620784</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7697799861581911</v>
+        <v>0.823037781327189</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>66.46251265149353</v>
+        <v>74.20903295011203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9145226319630941</v>
+        <v>0.6082856759428978</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6646251265149352</v>
+        <v>0.7420903295011202</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6300240997704736</v>
+        <v>0.7241112181344068</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.90777601882368</v>
+        <v>73.35565186550056</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8315913488467535</v>
+        <v>0.8360560676082969</v>
       </c>
       <c r="D16" t="n">
-        <v>0.689077760188237</v>
+        <v>0.7335565186550056</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6846626904153137</v>
+        <v>0.7135739419007732</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.6805076168479</v>
+        <v>71.78262787740378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5936853807419539</v>
+        <v>0.8335039362253156</v>
       </c>
       <c r="D17" t="n">
-        <v>0.766805076168479</v>
+        <v>0.7178262787740378</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7650077590319931</v>
+        <v>0.6838967967638921</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.96574364830147</v>
+        <v>76.86857152743536</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7283436426582436</v>
+        <v>0.5660194567870349</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6996574364830146</v>
+        <v>0.7686857152743536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6852186854630599</v>
+        <v>0.7710551359319583</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.88337269353541</v>
+        <v>83.19258817117796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6368365754683812</v>
+        <v>0.4493928391952068</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7788337269353541</v>
+        <v>0.8319258817117795</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7706432733739433</v>
+        <v>0.8277085115116958</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70.40908658379398</v>
+        <v>77.1637297900501</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7397922155757745</v>
+        <v>0.5926587418653071</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7040908658379397</v>
+        <v>0.7716372979005008</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6947005957390739</v>
+        <v>0.7695041368361233</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.95215356534226</v>
+        <v>68.43251239197571</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9655761002097278</v>
+        <v>1.01393804026302</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6895215356534227</v>
+        <v>0.6843251239197571</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6732522224780846</v>
+        <v>0.6587943892407819</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.78027491587298</v>
+        <v>82.0478550852516</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6004512126867969</v>
+        <v>0.5366301437218983</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7978027491587298</v>
+        <v>0.8204785508525161</v>
       </c>
       <c r="E22" t="n">
-        <v>0.785850710685532</v>
+        <v>0.8089734374538213</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.50589537971782</v>
+        <v>69.69593162570611</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9971085886160532</v>
+        <v>0.8422822517490204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6150589537971782</v>
+        <v>0.6969593162570611</v>
       </c>
       <c r="E23" t="n">
-        <v>0.576710775633513</v>
+        <v>0.6759101930051137</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.68187441067829</v>
+        <v>74.38412096990459</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6822388429194689</v>
+        <v>0.700267180497758</v>
       </c>
       <c r="D24" t="n">
-        <v>0.746818744106783</v>
+        <v>0.7438412096990459</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7382997763536311</v>
+        <v>0.7355655625204619</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.71693526760612</v>
+        <v>70.30605801088244</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8597370008627573</v>
+        <v>0.8748840981783965</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6771693526760612</v>
+        <v>0.7030605801088244</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6611102038424896</v>
+        <v>0.6931159147386006</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.88909073607904</v>
+        <v>82.56896685957491</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5030967630484763</v>
+        <v>0.393166266688301</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7888909073607903</v>
+        <v>0.8256896685957491</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7813885176735551</v>
+        <v>0.8244055590283625</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.76068997136653</v>
+        <v>77.55871590584692</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8043287689487139</v>
+        <v>0.8274826989509165</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7576068997136653</v>
+        <v>0.7755871590584693</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7517158216345399</v>
+        <v>0.7733067693618807</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.11185217865207</v>
+        <v>74.69614789055268</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8193723486736417</v>
+        <v>0.8055666334577836</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7011185217865206</v>
+        <v>0.7469614789055269</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6762193902755202</v>
+        <v>0.7225313782088382</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.43987404735336</v>
+        <v>90.02949852507375</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2844574422730753</v>
+        <v>0.3003000879194587</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8943987404735335</v>
+        <v>0.9002949852507374</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8944777441874375</v>
+        <v>0.8990268603390753</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.40719210373793</v>
+        <v>76.90291438507253</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4373081862839172</v>
+        <v>0.8310210143429382</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8140719210373792</v>
+        <v>0.7690291438507254</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7893793929952546</v>
+        <v>0.7372929734061968</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.58215901521639</v>
+        <v>95.96614157561916</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07900831591008076</v>
+        <v>0.1198563360552119</v>
       </c>
       <c r="D31" t="n">
-        <v>0.975821590152164</v>
+        <v>0.9596614157561916</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9756130038834596</v>
+        <v>0.959009162879872</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75.75482775225852</v>
+        <v>79.44508458839032</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6354897848898126</v>
+        <v>0.5758391140260219</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7575482775225854</v>
+        <v>0.7944508458839031</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7471277836797631</v>
+        <v>0.7849543423448246</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.253993179603272</v>
+        <v>6.032305883853014</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2032350479119913</v>
+        <v>0.205861411761317</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07253993179603271</v>
+        <v>0.06032305883853013</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0787874719188045</v>
+        <v>0.06661736049242305</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.82205728423256</v>
+        <v>76.6789505099525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6979387141143282</v>
+        <v>0.5628329330715738</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6982205728423256</v>
+        <v>0.766789505099525</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6920717488499409</v>
+        <v>0.7617689145076104</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.22417148937275</v>
+        <v>69.0276732497686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9848576036592325</v>
+        <v>0.7292632943329711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6422417148937274</v>
+        <v>0.690276732497686</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6211556184385579</v>
+        <v>0.6880724616509297</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.59146705421327</v>
+        <v>74.35150823104007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7394894354666273</v>
+        <v>0.6977162528705473</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7359146705421328</v>
+        <v>0.7435150823104006</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7120018248986596</v>
+        <v>0.7313104206807204</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.91102864211629</v>
+        <v>68.29955276429726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8779817855296036</v>
+        <v>0.8028562938794493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6491102864211629</v>
+        <v>0.6829955276429727</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6283111163838951</v>
+        <v>0.6541003394145649</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.14686113201671</v>
+        <v>70.80277511051133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7393870845437049</v>
+        <v>0.7730432152748108</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6714686113201671</v>
+        <v>0.7080277511051134</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6597601068356992</v>
+        <v>0.6848889777461018</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.82752445955415</v>
+        <v>66.47946781546554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9647245218356451</v>
+        <v>0.8366358267764251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6182752445955415</v>
+        <v>0.6647946781546553</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6071357828888374</v>
+        <v>0.6524729927963075</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.26681891711867</v>
+        <v>78.24020969039525</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7684078068317224</v>
+        <v>0.5642844682789777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7426681891711866</v>
+        <v>0.7824020969039525</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7122405663360043</v>
+        <v>0.777305442195751</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.57484061280806</v>
+        <v>85.68032595437677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4406371906710168</v>
+        <v>0.3825531586083041</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8157484061280806</v>
+        <v>0.8568032595437677</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8142456088255272</v>
+        <v>0.8520146179286137</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.52034187146947</v>
+        <v>82.67147639685464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4553662527798831</v>
+        <v>0.4454932676702204</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8152034187146947</v>
+        <v>0.8267147639685465</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8143382752125227</v>
+        <v>0.8204552375789917</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.79446188980873</v>
+        <v>77.50663933079007</v>
       </c>
       <c r="C11" t="n">
-        <v>0.78138724428912</v>
+        <v>0.5964433010667562</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6979446188980873</v>
+        <v>0.7750663933079005</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6876922704044806</v>
+        <v>0.7737033419361017</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.93089905622021</v>
+        <v>77.57030770162372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7776427739610274</v>
+        <v>0.6073548078071326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7193089905622021</v>
+        <v>0.7757030770162372</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7167843934106652</v>
+        <v>0.7650019948482071</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.75156359484079</v>
+        <v>80.46427737264165</v>
       </c>
       <c r="C13" t="n">
-        <v>0.834101145962874</v>
+        <v>0.5146001969774564</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7075156359484078</v>
+        <v>0.8046427737264163</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6967511352001367</v>
+        <v>0.8020066565086431</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.75665879462625</v>
+        <v>72.90867568058547</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9550865344703198</v>
+        <v>0.7919120574525247</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6975665879462625</v>
+        <v>0.7290867568058548</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6676124746861665</v>
+        <v>0.7042083163606425</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.77325928424987</v>
+        <v>69.67283454009117</v>
       </c>
       <c r="C15" t="n">
-        <v>1.041652179757754</v>
+        <v>0.71061517521739</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5877325928424987</v>
+        <v>0.6967283454009118</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5712394940302365</v>
+        <v>0.6841535618003231</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.56015190442823</v>
+        <v>69.41340323013175</v>
       </c>
       <c r="C16" t="n">
-        <v>1.060729434962074</v>
+        <v>0.8661404721438885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6356015190442824</v>
+        <v>0.6941340323013174</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6152867786721401</v>
+        <v>0.679674315480271</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.6569087967889</v>
+        <v>71.9821970778294</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7810107241074244</v>
+        <v>0.6687572568150547</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6865690879678891</v>
+        <v>0.719821970778294</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6767689477993178</v>
+        <v>0.7151243791065001</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.35901694651339</v>
+        <v>70.54092163427019</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8486959294726452</v>
+        <v>0.7234569491197667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6235901694651338</v>
+        <v>0.7054092163427019</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5903117017399443</v>
+        <v>0.703529551701602</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.61645861988426</v>
+        <v>81.42509883303489</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7295992376903693</v>
+        <v>0.4597699179003636</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7261645861988425</v>
+        <v>0.8142509883303489</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7245531073054634</v>
+        <v>0.8149952681818352</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.63619927508023</v>
+        <v>78.28553880223878</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9291907978554568</v>
+        <v>0.5857151405264933</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6463619927508024</v>
+        <v>0.7828553880223877</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6319000380218952</v>
+        <v>0.7766262678116393</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>66.72298203271654</v>
+        <v>68.19790828640386</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9826426803444823</v>
+        <v>1.209627325804225</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6672298203271654</v>
+        <v>0.6819790828640386</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6513609977039444</v>
+        <v>0.6531411242842809</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.71085390012024</v>
+        <v>73.54319674045624</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9212817086430732</v>
+        <v>0.7890007293783128</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7471085390012024</v>
+        <v>0.7354319674045623</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7139195497546408</v>
+        <v>0.7252791552107988</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.63529961331845</v>
+        <v>73.5963113867767</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9890482582151889</v>
+        <v>0.7232692850288004</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6063529961331845</v>
+        <v>0.735963113867767</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5842205762015729</v>
+        <v>0.7261311210998227</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>65.81942750369812</v>
+        <v>70.32093703232727</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8598093718290329</v>
+        <v>0.8204660851197938</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6581942750369812</v>
+        <v>0.7032093703232727</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6483024046430165</v>
+        <v>0.6828066229658564</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.28170658915734</v>
+        <v>72.55953771226396</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8779895412425202</v>
+        <v>0.7490905106067658</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6528170658915735</v>
+        <v>0.7255953771226394</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6261613662909271</v>
+        <v>0.7130369960860767</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.52794574347529</v>
+        <v>75.17763994498222</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7673148360103369</v>
+        <v>0.6286296128761023</v>
       </c>
       <c r="D26" t="n">
-        <v>0.705279457434753</v>
+        <v>0.7517763994498222</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6880675486413906</v>
+        <v>0.7523469990566772</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>64.63100891876226</v>
+        <v>63.48592980908139</v>
       </c>
       <c r="C27" t="n">
-        <v>1.164913303971601</v>
+        <v>1.328090639191214</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6463100891876227</v>
+        <v>0.634859298090814</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6304322159600212</v>
+        <v>0.6219315910538086</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.8871184006782</v>
+        <v>70.16496682497254</v>
       </c>
       <c r="C28" t="n">
-        <v>1.04129946877559</v>
+        <v>0.8316309195011854</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6088711840067821</v>
+        <v>0.7016496682497253</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5796588639895793</v>
+        <v>0.6935510407337894</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>76.82324241559184</v>
+        <v>88.90872758414865</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6117632213359078</v>
+        <v>0.2831625857351658</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7682324241559183</v>
+        <v>0.8890872758414865</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7632489402677411</v>
+        <v>0.8882593568253586</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>74.48524641216621</v>
+        <v>78.48718414519156</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6491120165820272</v>
+        <v>0.5255951538835386</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7448524641216621</v>
+        <v>0.7848718414519157</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7228148449617601</v>
+        <v>0.7745279178445041</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.61075787852836</v>
+        <v>96.78915907577054</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2389381365991236</v>
+        <v>0.112744467392622</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9361075787852837</v>
+        <v>0.9678915907577055</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9357454416963833</v>
+        <v>0.9676706769814281</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.52854263445187</v>
+        <v>75.10777774894244</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8170666313836572</v>
+        <v>0.6773583766769279</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6952854263445187</v>
+        <v>0.7510777774894247</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6794697913350356</v>
+        <v>0.7413365220125919</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.279470866525018</v>
+        <v>6.974819825850447</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1967266463030779</v>
+        <v>0.2335272743367714</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07279470866525019</v>
+        <v>0.06974819825850447</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07792007287991629</v>
+        <v>0.07471043210483456</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.98543239993425</v>
+        <v>63.96551873286101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9751740177472433</v>
+        <v>0.7715198492010434</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5598543239993425</v>
+        <v>0.63965518732861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5348382404226676</v>
+        <v>0.6379884767930835</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.234214828848</v>
+        <v>55.1855119853978</v>
       </c>
       <c r="C3" t="n">
-        <v>1.056700554490089</v>
+        <v>1.014148655533791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5523421482884799</v>
+        <v>0.5518551198539779</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5313662396482675</v>
+        <v>0.5388212131982802</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.76581112293358</v>
+        <v>68.40612808069275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8259379085153341</v>
+        <v>0.8180852390825748</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6776581112293358</v>
+        <v>0.6840612808069274</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6663938030645278</v>
+        <v>0.6649943809243031</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.20841010735387</v>
+        <v>58.96841668180521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8223943936328093</v>
+        <v>0.7698711882034938</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6220841010735387</v>
+        <v>0.5896841668180521</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6074150067459122</v>
+        <v>0.5809611537758483</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.78831996816581</v>
+        <v>65.12322770958227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8279984225829443</v>
+        <v>0.7762930656472842</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5978831996816582</v>
+        <v>0.6512322770958227</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5783212237330204</v>
+        <v>0.6302274738766307</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.18597046687255</v>
+        <v>59.68070658050675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9724966396888096</v>
+        <v>0.9319699202974638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5818597046687255</v>
+        <v>0.5968070658050675</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5721798954551955</v>
+        <v>0.575648594823565</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.26394691995606</v>
+        <v>75.59382001574409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.70011140210554</v>
+        <v>0.6277306944985563</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7226394691995606</v>
+        <v>0.7559382001574408</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7048076540832084</v>
+        <v>0.7511338764837088</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.5727125667177</v>
+        <v>78.4652981427175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6526625209177535</v>
+        <v>0.5964046976839502</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7557271256671771</v>
+        <v>0.784652981427175</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7531396110761114</v>
+        <v>0.7850345095192323</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.9673353575723</v>
+        <v>78.41970951305807</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6266147355238597</v>
+        <v>0.5421395272326966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7396733535757229</v>
+        <v>0.7841970951305808</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7399626245872316</v>
+        <v>0.7788695659872158</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.21223366984142</v>
+        <v>68.50569641605895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7903052886327108</v>
+        <v>0.7485283806920051</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6421223366984143</v>
+        <v>0.6850569641605897</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6354819757910996</v>
+        <v>0.6824701825477606</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.2419657609495</v>
+        <v>66.7569788665992</v>
       </c>
       <c r="C12" t="n">
-        <v>0.909898430109024</v>
+        <v>0.7974802501499653</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6124196576094949</v>
+        <v>0.6675697886659919</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5927604792033044</v>
+        <v>0.6534826159149034</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.79408126367875</v>
+        <v>67.26468222043442</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8425741973022619</v>
+        <v>0.8340420961380005</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6579408126367875</v>
+        <v>0.6726468222043442</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6516462025726911</v>
+        <v>0.6601274742547558</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>61.49871538681131</v>
+        <v>65.1759963321482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8624864051739376</v>
+        <v>0.8371072545647621</v>
       </c>
       <c r="D14" t="n">
-        <v>0.614987153868113</v>
+        <v>0.651759963321482</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6003720254610595</v>
+        <v>0.6384239853396179</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>57.93908251801486</v>
+        <v>59.82283583768026</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9640253881613413</v>
+        <v>0.8774427647391955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5793908251801486</v>
+        <v>0.5982283583768025</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5662771367883873</v>
+        <v>0.5867140519537567</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.86865803337399</v>
+        <v>63.56118997569183</v>
       </c>
       <c r="C16" t="n">
-        <v>1.002809803684553</v>
+        <v>0.8559974431991577</v>
       </c>
       <c r="D16" t="n">
-        <v>0.56868658033374</v>
+        <v>0.6356118997569183</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5435142973463485</v>
+        <v>0.6171925001711609</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.58586146938988</v>
+        <v>62.15590100260383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9716074258089066</v>
+        <v>0.9498737836877504</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5558586146938987</v>
+        <v>0.6215590100260383</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5442914474847662</v>
+        <v>0.6077678739156618</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64.6488291421206</v>
+        <v>65.92020692220521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8922019541263581</v>
+        <v>0.7823320207496484</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6464882914212061</v>
+        <v>0.659202069222052</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6364752964248309</v>
+        <v>0.6397332819438493</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.19895500826132</v>
+        <v>73.96958451197675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7526555344462394</v>
+        <v>0.6122231471041838</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6919895500826132</v>
+        <v>0.7396958451197675</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6833020656329966</v>
+        <v>0.7303137181617803</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58.21278730784868</v>
+        <v>63.78697047552314</v>
       </c>
       <c r="C20" t="n">
-        <v>1.116196588675181</v>
+        <v>0.9801978449026743</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5821278730784869</v>
+        <v>0.6378697047552315</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5429972903564948</v>
+        <v>0.6170337391362402</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>64.97625411984532</v>
+        <v>60.24801252605992</v>
       </c>
       <c r="C21" t="n">
-        <v>1.047066261619329</v>
+        <v>1.281501713643471</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6497625411984533</v>
+        <v>0.6024801252605991</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5991605111639504</v>
+        <v>0.5894624109983392</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.12205987941073</v>
+        <v>72.29854929540913</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7966741075118383</v>
+        <v>0.8644592781861624</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7012205987941071</v>
+        <v>0.7229854929540913</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6890667162092636</v>
+        <v>0.7005886146137524</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63.05608180001557</v>
+        <v>66.02678223860069</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8762035394708315</v>
+        <v>0.8770019069314003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6305608180001557</v>
+        <v>0.6602678223860068</v>
       </c>
       <c r="E23" t="n">
-        <v>0.617119596236163</v>
+        <v>0.6489056744326357</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.60685646069603</v>
+        <v>64.75644252977966</v>
       </c>
       <c r="C24" t="n">
-        <v>0.862586360424757</v>
+        <v>0.9230470041433971</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6260685646069603</v>
+        <v>0.6475644252977967</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6178124714690287</v>
+        <v>0.625033924795512</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.94846841235651</v>
+        <v>54.51206325314233</v>
       </c>
       <c r="C25" t="n">
-        <v>1.134426005681356</v>
+        <v>1.165001780788104</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5294846841235652</v>
+        <v>0.5451206325314233</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5100721406680845</v>
+        <v>0.4979030855144407</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>67.52567063728925</v>
+        <v>67.37592885751607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7460577915112178</v>
+        <v>0.8548423042831322</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6752567063728925</v>
+        <v>0.6737592885751607</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6563660218589366</v>
+        <v>0.6495751575084314</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>54.65626865284302</v>
+        <v>52.97762091367572</v>
       </c>
       <c r="C27" t="n">
-        <v>1.23828206807375</v>
+        <v>1.394339812546968</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5465626865284301</v>
+        <v>0.5297762091367573</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5146257035745622</v>
+        <v>0.499768718569394</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.13051150961513</v>
+        <v>58.94886633967421</v>
       </c>
       <c r="C28" t="n">
-        <v>1.001732397451997</v>
+        <v>0.9105466266473133</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5713051150961513</v>
+        <v>0.5894886633967421</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5315653030367707</v>
+        <v>0.5693787558376548</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72.15797714513101</v>
+        <v>77.71641623197432</v>
       </c>
       <c r="C29" t="n">
-        <v>0.698327861726284</v>
+        <v>0.5483620963990689</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7215797714513101</v>
+        <v>0.7771641623197432</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7128749333226303</v>
+        <v>0.7727424475563307</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78.28588482599331</v>
+        <v>78.25500220590143</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4495005535466287</v>
+        <v>0.4415998182725162</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7828588482599331</v>
+        <v>0.7825500220590144</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7693860566841676</v>
+        <v>0.7790936414662334</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.91092483498991</v>
+        <v>92.3773562055035</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2116028741933405</v>
+        <v>0.2288685930698799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9291092483498993</v>
+        <v>0.9237735620550351</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9296122994517113</v>
+        <v>0.9238561616264225</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.41834271922768</v>
+        <v>66.87404735335082</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8542437144178741</v>
+        <v>0.8204319586073202</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6441834271922767</v>
+        <v>0.668740473533508</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6277734756517799</v>
+        <v>0.6544415753880167</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.484470145448974</v>
+        <v>8.451643286165844</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2021205281076355</v>
+        <v>0.2289495081881568</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08484470145448975</v>
+        <v>0.08451643286165846</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09134816497976446</v>
+        <v>0.09119267757727785</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.91217052050623</v>
+        <v>56.54019498438568</v>
       </c>
       <c r="C2" t="n">
-        <v>1.195699853698412</v>
+        <v>1.095620112121105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4691217052050624</v>
+        <v>0.5654019498438567</v>
       </c>
       <c r="E2" t="n">
-        <v>0.418126727955373</v>
+        <v>0.5274849402287671</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.03391897853788</v>
+        <v>51.61143262484969</v>
       </c>
       <c r="C3" t="n">
-        <v>1.492910813788573</v>
+        <v>1.400258102267981</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4103391897853788</v>
+        <v>0.516114326248497</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3743082343175521</v>
+        <v>0.4617687450928196</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.44385332053046</v>
+        <v>57.79773181428904</v>
       </c>
       <c r="C4" t="n">
-        <v>1.104302589098612</v>
+        <v>1.224136161059141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4944385332053045</v>
+        <v>0.5779773181428906</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4910779338713642</v>
+        <v>0.549629617227175</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.98469709945588</v>
+        <v>41.81221290841616</v>
       </c>
       <c r="C5" t="n">
-        <v>1.180871590971947</v>
+        <v>1.370590397715568</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4098469709945587</v>
+        <v>0.4181221290841616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3690398826883824</v>
+        <v>0.3484815189279414</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.74785249007344</v>
+        <v>46.41000354674348</v>
       </c>
       <c r="C6" t="n">
-        <v>1.177420909206073</v>
+        <v>1.309966528043151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4174785249007344</v>
+        <v>0.4641000354674348</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3716306152954242</v>
+        <v>0.4265151683668528</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.61142397425583</v>
+        <v>45.9114698224033</v>
       </c>
       <c r="C7" t="n">
-        <v>1.313126836220424</v>
+        <v>1.591927104940017</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4061142397425583</v>
+        <v>0.4591146982240331</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3590514120812196</v>
+        <v>0.3990748199072314</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.85950570506665</v>
+        <v>69.37516760525611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7542009696364402</v>
+        <v>0.9058075881369101</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6885950570506665</v>
+        <v>0.6937516760525611</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6762099950183126</v>
+        <v>0.6837349324742118</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63.84060415747541</v>
+        <v>71.18677497210183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8508147087569039</v>
+        <v>0.7440482335863635</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6384060415747541</v>
+        <v>0.7118677497210183</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5922549860149809</v>
+        <v>0.6961923861221659</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.42710577081117</v>
+        <v>62.05434303064906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8394447702914476</v>
+        <v>1.10308298630019</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6342710577081117</v>
+        <v>0.6205434303064905</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6150703380878586</v>
+        <v>0.5893498492598467</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.29565134646494</v>
+        <v>57.44963191723112</v>
       </c>
       <c r="C11" t="n">
-        <v>1.240860666831334</v>
+        <v>1.095748700201511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4729565134646494</v>
+        <v>0.5744963191723113</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4328918527481395</v>
+        <v>0.5411371296626106</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.15218989783649</v>
+        <v>58.89194543205391</v>
       </c>
       <c r="C12" t="n">
-        <v>1.311490698158741</v>
+        <v>1.14903593113025</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4315218989783648</v>
+        <v>0.588919454320539</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3479590885483123</v>
+        <v>0.5289659999550228</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.36457927836746</v>
+        <v>58.50656147544529</v>
       </c>
       <c r="C13" t="n">
-        <v>1.04853472361962</v>
+        <v>1.361818810800711</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5536457927836747</v>
+        <v>0.585065614754453</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5206503112062956</v>
+        <v>0.5377625763393342</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.24742428567721</v>
+        <v>51.22924938797048</v>
       </c>
       <c r="C14" t="n">
-        <v>1.121064153810342</v>
+        <v>1.616236533348759</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5224742428567721</v>
+        <v>0.5122924938797049</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4879324133438893</v>
+        <v>0.4775517367418368</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.75357918321093</v>
+        <v>40.31245945034127</v>
       </c>
       <c r="C15" t="n">
-        <v>1.168733781576157</v>
+        <v>1.811619579792023</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4375357918321093</v>
+        <v>0.4031245945034126</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4030036980673357</v>
+        <v>0.3366609238153567</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.36816062422685</v>
+        <v>47.85733440600697</v>
       </c>
       <c r="C16" t="n">
-        <v>1.203838381171227</v>
+        <v>1.503115355968475</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3936816062422685</v>
+        <v>0.4785733440600698</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3498025036954121</v>
+        <v>0.4282887370217318</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.88508551112034</v>
+        <v>43.95072621735482</v>
       </c>
       <c r="C17" t="n">
-        <v>1.476935527225335</v>
+        <v>1.380414885779222</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3588508551112034</v>
+        <v>0.4395072621735482</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3073558107166536</v>
+        <v>0.4020429466324836</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41.30502859021271</v>
+        <v>54.1811780378723</v>
       </c>
       <c r="C18" t="n">
-        <v>1.16058553904295</v>
+        <v>1.190960055217147</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4130502859021272</v>
+        <v>0.541811780378723</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3840474792165625</v>
+        <v>0.4936154868077364</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.00435989930709</v>
+        <v>50.36003771658925</v>
       </c>
       <c r="C19" t="n">
-        <v>1.028719776620468</v>
+        <v>1.469323909282684</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5400435989930709</v>
+        <v>0.5036003771658925</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5022354864648869</v>
+        <v>0.4450260050490998</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51.3258765214232</v>
+        <v>58.17541674235937</v>
       </c>
       <c r="C20" t="n">
-        <v>1.321491375317176</v>
+        <v>1.112601132442554</v>
       </c>
       <c r="D20" t="n">
-        <v>0.513258765214232</v>
+        <v>0.5817541674235935</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4548358491484837</v>
+        <v>0.554116190547674</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.95209301118522</v>
+        <v>50.50268600939454</v>
       </c>
       <c r="C21" t="n">
-        <v>1.312112474689881</v>
+        <v>1.411156457538406</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5195209301118522</v>
+        <v>0.5050268600939455</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4787471021900457</v>
+        <v>0.4515931555406162</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.38953624166299</v>
+        <v>65.47686398671269</v>
       </c>
       <c r="C22" t="n">
-        <v>1.296367494265238</v>
+        <v>1.125931064784527</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5038953624166299</v>
+        <v>0.6547686398671269</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4743885797199605</v>
+        <v>0.6250389005958069</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.86466145900916</v>
+        <v>54.54311888511146</v>
       </c>
       <c r="C23" t="n">
-        <v>1.194887130955855</v>
+        <v>1.253718580553929</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4486466145900916</v>
+        <v>0.5454311888511146</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4007892602008258</v>
+        <v>0.5103372791266897</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.26618742376665</v>
+        <v>54.95229197484407</v>
       </c>
       <c r="C24" t="n">
-        <v>1.049758939941724</v>
+        <v>0.9898660391569137</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5126618742376664</v>
+        <v>0.5495229197484408</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5017292249224548</v>
+        <v>0.5363818294824695</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.33138694971409</v>
+        <v>44.42374068979835</v>
       </c>
       <c r="C25" t="n">
-        <v>1.337421897053719</v>
+        <v>1.242719380060832</v>
       </c>
       <c r="D25" t="n">
-        <v>0.383313869497141</v>
+        <v>0.4442374068979835</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3353104491327269</v>
+        <v>0.4302602891949204</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48.94843380998105</v>
+        <v>57.1619131653388</v>
       </c>
       <c r="C26" t="n">
-        <v>1.407815673450629</v>
+        <v>1.14528082460165</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4894843380998106</v>
+        <v>0.571619131653388</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4248372043743777</v>
+        <v>0.5401842659943022</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.91233488178963</v>
+        <v>53.25089317381638</v>
       </c>
       <c r="C27" t="n">
-        <v>1.660271306832631</v>
+        <v>1.238639179368814</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3591233488178963</v>
+        <v>0.5325089317381638</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2941303347730615</v>
+        <v>0.5001600269909686</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.59102587392624</v>
+        <v>51.77665896763813</v>
       </c>
       <c r="C28" t="n">
-        <v>1.153937144577503</v>
+        <v>1.194869970437139</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5259102587392623</v>
+        <v>0.5177665896763812</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4698512367038395</v>
+        <v>0.4733867641187229</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>54.30194032820354</v>
+        <v>66.78249811849584</v>
       </c>
       <c r="C29" t="n">
-        <v>1.002474874754747</v>
+        <v>0.8236247859895229</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5430194032820352</v>
+        <v>0.6678249811849584</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4976702009506069</v>
+        <v>0.6508341011066168</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.75280062976324</v>
+        <v>74.20289102846911</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5665500619274099</v>
+        <v>0.7334006149719547</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7375280062976324</v>
+        <v>0.742028910284691</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7300799750265157</v>
+        <v>0.7064015269097015</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.72036090277598</v>
+        <v>89.64229794375385</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4157699001254514</v>
+        <v>0.3799676632819077</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8372036090277598</v>
+        <v>0.8964229794375385</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8315115363572542</v>
+        <v>0.8961379506337082</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.21979428887792</v>
+        <v>56.21099086785641</v>
       </c>
       <c r="C32" t="n">
-        <v>1.146280485453899</v>
+        <v>1.199182888962645</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5021979428887792</v>
+        <v>0.5621099086785641</v>
       </c>
       <c r="E32" t="n">
-        <v>0.463217657427937</v>
+        <v>0.5249371933291475</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11.07653781066678</v>
+        <v>10.42918571617244</v>
       </c>
       <c r="C33" t="n">
-        <v>0.259174242965414</v>
+        <v>0.2873524031453408</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1107653781066678</v>
+        <v>0.1042918571617244</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1225983870068527</v>
+        <v>0.1162676144298649</v>
       </c>
     </row>
   </sheetData>
